--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ32104168" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32443725" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ32775291" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ33098110" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ33439828" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33853865" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34198186" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ34525864" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34931098" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06480728" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06764540" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ07081550" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ07425877" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ07742151" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08079547" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ08418214" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ08763514" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09093335" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.933542921364</v>
+        <v>1629.497466039475</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2728041997954808</v>
+        <v>0.2869698288432871</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.3342091939174</v>
+        <v>345.2691625737243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6654319841900367</v>
+        <v>0.7385931190442029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.1810619553103</v>
+        <v>591.3256949139709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9108807308951536</v>
+        <v>0.568057090311336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.9631666980108</v>
+        <v>-2938.994747037446</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5788434553597617</v>
+        <v>0.06986695355898126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2941.254031783067</v>
+        <v>151.5659721853933</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06964443594606549</v>
+        <v>0.04935262828696263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0002619341809</v>
+        <v>-1182.088115618863</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0502050157727553</v>
+        <v>5.395853632165056e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1172.95044835924</v>
+        <v>-15.10545794927232</v>
       </c>
       <c r="C8" t="n">
-        <v>7.576757456478098e-10</v>
+        <v>0.06788658401608176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.91668396724094</v>
+        <v>-173.5069739458386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05538190591041366</v>
+        <v>0.0263311587869013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-173.5837023745929</v>
+        <v>722.3577989354596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02626050294917519</v>
+        <v>4.940858663703281e-30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>719.5926251050389</v>
+        <v>-0.01670374774424794</v>
       </c>
       <c r="C11" t="n">
-        <v>8.91674933898273e-30</v>
+        <v>0.607060510864907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01807046835512957</v>
+        <v>5.314098710641414e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5782507205717899</v>
+        <v>0.3895144727521501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.902429590567271e-05</v>
+        <v>-5.818317608561156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3410686265387439</v>
+        <v>0.4460909649239337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.331036427206955</v>
+        <v>40.03885676391339</v>
       </c>
       <c r="C14" t="n">
-        <v>0.407953907108806</v>
+        <v>7.902878824158761e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.25351694125089</v>
+        <v>-228.1638695685485</v>
       </c>
       <c r="C15" t="n">
-        <v>6.950438021693762e-07</v>
+        <v>0.8350162200555852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-275.8643107442151</v>
+        <v>569.2409212117411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8013382911574415</v>
+        <v>0.4771867208577711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>598.4660285702437</v>
+        <v>4778.772041565376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4551129462765168</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4653.034306457566</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3465561701118128</v>
+        <v>0.3335620888667261</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3939.864191202018</v>
+        <v>3931.980958789404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008711481893573972</v>
+        <v>0.008816255045209553</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-76.44497884008354</v>
+        <v>-99.43053580084208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9380013072562423</v>
+        <v>0.918967149026988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-147.4714931406282</v>
+        <v>126.1625295095222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8828080074019781</v>
+        <v>0.8972400837964841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123.0797971420906</v>
+        <v>1745.760464723774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8997647542537828</v>
+        <v>0.4036651854989654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1743.706509959119</v>
+        <v>66.29729705981393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4043052663979991</v>
+        <v>0.3972171730512714</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.06092301523356</v>
+        <v>-1195.373004218941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3990268294543023</v>
+        <v>3.657518855066163e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1194.642930970032</v>
+        <v>-23.43846837933217</v>
       </c>
       <c r="C8" t="n">
-        <v>3.796172161749531e-10</v>
+        <v>0.004933691171414198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.58036991116829</v>
+        <v>-165.5477495856342</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00480486699783399</v>
+        <v>0.03332187542781269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-165.8590570797507</v>
+        <v>687.4903045799097</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03305011862416648</v>
+        <v>1.23961719577292e-27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>686.9263835152294</v>
+        <v>-0.01097384859614635</v>
       </c>
       <c r="C11" t="n">
-        <v>1.529747380730445e-27</v>
+        <v>0.742821791812472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0112949346453451</v>
+        <v>-2.298467652275209e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7358491141642907</v>
+        <v>0.7144350140358966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.19006332755726e-05</v>
+        <v>-2.432716688207171</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7281597348271671</v>
+        <v>0.7505286318072424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.507019474722222</v>
+        <v>32.18198258149251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7434460841812425</v>
+        <v>5.285662778856185e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.2634140521403</v>
+        <v>-461.73333196482</v>
       </c>
       <c r="C15" t="n">
-        <v>5.166599073461304e-05</v>
+        <v>0.6735499334412293</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-472.4765894352865</v>
+        <v>-299.2468035979546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6667580243996292</v>
+        <v>0.7084150382809195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-294.2806926806157</v>
+        <v>873.4711365112307</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7131893468759198</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>844.1684277816739</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.861297222537953</v>
+        <v>0.8564578601884205</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4973.872039833173</v>
+        <v>4957.986117825538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001040880773141641</v>
+        <v>0.001070669880388247</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-459.6504989988731</v>
+        <v>-490.7845221435221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6454953246338472</v>
+        <v>0.6214046028566762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-553.4843660750494</v>
+        <v>-190.2702471874123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5855571330937124</v>
+        <v>0.8480762461899292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-195.1114795549945</v>
+        <v>-5709.000721861785</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8443049988715187</v>
+        <v>0.0006621145446147801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5707.387327221933</v>
+        <v>87.19613384121689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006658755135941016</v>
+        <v>0.2648889482612267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.9192792515189</v>
+        <v>-1208.967381020638</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2665210512066079</v>
+        <v>2.243226156350992e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1206.70474316242</v>
+        <v>-12.82324783828107</v>
       </c>
       <c r="C8" t="n">
-        <v>2.515261820710816e-10</v>
+        <v>0.1274217764957826</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13.03567276536346</v>
+        <v>-141.8885957884873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1225800491682338</v>
+        <v>0.06773641395663192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-141.1890113161056</v>
+        <v>606.9622679167255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06926967849304251</v>
+        <v>5.520267055084234e-22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>605.4611080750294</v>
+        <v>-0.0009399051864314167</v>
       </c>
       <c r="C11" t="n">
-        <v>9.358451542463989e-22</v>
+        <v>0.9768202089854863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001440597197996808</v>
+        <v>1.759259888967714e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9645306325233562</v>
+        <v>0.7734129608148774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.894568278895136e-05</v>
+        <v>-14.34412214369923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7571773842338544</v>
+        <v>0.06286905735001606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-14.47810857419498</v>
+        <v>27.00375283163432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06091385320087758</v>
+        <v>0.0008692746202386915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.07589821626863</v>
+        <v>-389.2735515665968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008479915864883058</v>
+        <v>0.7220455548709646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-402.7769684233079</v>
+        <v>-7.075169692514123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.71309504081343</v>
+        <v>0.9931589590635711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7140146632135611</v>
+        <v>4727.282034550251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993099413358817</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4716.1701876971</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3317545664202828</v>
+        <v>0.3305221987440302</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3731.063889503836</v>
+        <v>3725.014713742691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01594848977095839</v>
+        <v>0.01609378639884389</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-502.302360894931</v>
+        <v>-532.6845283388741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6156191568458311</v>
+        <v>0.5925813956585781</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-597.9053352425785</v>
+        <v>-369.9964088657576</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5568468078778828</v>
+        <v>0.7099862165977117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-375.2444178020066</v>
+        <v>-4020.334011410961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7061501111344375</v>
+        <v>0.01425366618333938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4019.375506684197</v>
+        <v>30.83208600447628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01429318479580612</v>
+        <v>0.6917682072193843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.67554740530514</v>
+        <v>-1216.089211608589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6933081160315436</v>
+        <v>2.111217011398236e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1212.320886884256</v>
+        <v>-17.99694070338107</v>
       </c>
       <c r="C8" t="n">
-        <v>2.620824023083612e-10</v>
+        <v>0.02975298431815491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-18.24903871232594</v>
+        <v>-98.31475226277487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02831730933655249</v>
+        <v>0.2082791084336607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-98.4989463977842</v>
+        <v>631.0630917614221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2075173318525531</v>
+        <v>2.891798012478861e-23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>630.3124020592707</v>
+        <v>-0.01239052546264051</v>
       </c>
       <c r="C11" t="n">
-        <v>3.550636267095716e-23</v>
+        <v>0.6984295432991721</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01280912071937766</v>
+        <v>-2.700745548436048e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6890779539650947</v>
+        <v>0.9645127373422575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.45884867343563e-06</v>
+        <v>-7.052171664942921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9808713430668911</v>
+        <v>0.3537285961112278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.138747097149305</v>
+        <v>39.8971839172072</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3482570807985425</v>
+        <v>5.525133781903482e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.02795848586379</v>
+        <v>-279.2167543846996</v>
       </c>
       <c r="C15" t="n">
-        <v>5.298305247893746e-06</v>
+        <v>0.7988206552722329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-290.150309291328</v>
+        <v>446.1352550986606</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7912617150298802</v>
+        <v>0.5834890648372897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>452.0721670071622</v>
+        <v>1457.960808809921</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5786587686363474</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1443.196079366116</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7665955637642896</v>
+        <v>0.7642289496402029</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4199.584786233183</v>
+        <v>4202.888828866789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004516741754505486</v>
+        <v>0.004466361309944916</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-402.0578923269836</v>
+        <v>-393.0678819656035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6758816274193631</v>
+        <v>0.6811376966598908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-372.9679264820894</v>
+        <v>-174.4929933076016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.703807092459154</v>
+        <v>0.8551610039901966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-172.8955750672283</v>
+        <v>-3554.658722521741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8565215067957238</v>
+        <v>0.02401580014962744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3555.130907755207</v>
+        <v>112.6686521430393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02402363153849167</v>
+        <v>0.1448473586165746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.6872260865571</v>
+        <v>-1333.215365331709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1448560266766427</v>
+        <v>2.919586300066321e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1334.137586479451</v>
+        <v>-14.96854442655807</v>
       </c>
       <c r="C8" t="n">
-        <v>3.045843809490494e-12</v>
+        <v>0.07007308768824004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.90479889450335</v>
+        <v>-166.5587479516174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0723057697805894</v>
+        <v>0.03244341889887397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-166.6503427875497</v>
+        <v>610.0040514153147</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03239391647048893</v>
+        <v>3.035376175234501e-22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>610.3609562951273</v>
+        <v>-0.01258346992425002</v>
       </c>
       <c r="C11" t="n">
-        <v>3.492534176144571e-22</v>
+        <v>0.6940061611733728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01239141052196157</v>
+        <v>4.847447678882711e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6990975912855726</v>
+        <v>0.4284590419264406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.806279483332192e-05</v>
+        <v>-11.74092353070566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4336818054498284</v>
+        <v>0.120756075174222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.71385171332799</v>
+        <v>36.27429645125945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1219603195124142</v>
+        <v>6.48071213573234e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.2443198680805</v>
+        <v>-1265.542844713658</v>
       </c>
       <c r="C15" t="n">
-        <v>6.735076979770868e-06</v>
+        <v>0.2491339157985089</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1262.126419406103</v>
+        <v>227.3107307948517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2507669678791832</v>
+        <v>0.7806321879361363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>226.6155146646241</v>
+        <v>3827.2040006385</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7813340053476655</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3832.755807936273</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4332381497328518</v>
+        <v>0.4337860266270711</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7214.579871226345</v>
+        <v>7223.084245681586</v>
       </c>
       <c r="C2" t="n">
-        <v>3.036649661312436e-05</v>
+        <v>2.96000931162813e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2706.972926108584</v>
+        <v>-2663.054939853771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03376305188378653</v>
+        <v>0.03609650213034483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2577.30548592385</v>
+        <v>-2260.533277450554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04523425375593591</v>
+        <v>0.07526226815211061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2256.814598147765</v>
+        <v>-6122.929609177428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07579470000281002</v>
+        <v>0.0009084520136036192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6126.412330757326</v>
+        <v>101.7685155113058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009040873108892985</v>
+        <v>0.1855017677491959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.8826873492368</v>
+        <v>-1063.165464570241</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1850786084925702</v>
+        <v>2.010830504638063e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1067.304638507008</v>
+        <v>-14.25147838111528</v>
       </c>
       <c r="C8" t="n">
-        <v>1.862151313387297e-08</v>
+        <v>0.08084725310407818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-13.89856355774287</v>
+        <v>-230.0607827520028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09037989810498719</v>
+        <v>0.003411368988496585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-230.4964249546375</v>
+        <v>664.9704632000946</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003358695067241814</v>
+        <v>2.885395188845914e-26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>666.0497753124191</v>
+        <v>-0.01086226875602221</v>
       </c>
       <c r="C11" t="n">
-        <v>2.695788141375347e-26</v>
+        <v>0.731004496045046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01055490695361695</v>
+        <v>1.620162530967916e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7384385965194651</v>
+        <v>0.7897704560974728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.503721938484808e-05</v>
+        <v>-12.3065421627801</v>
       </c>
       <c r="C13" t="n">
-        <v>0.804789228167313</v>
+        <v>0.1009698061297968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.21586958901828</v>
+        <v>23.67218230000813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1037005136165782</v>
+        <v>0.004551532727747081</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.56397939879533</v>
+        <v>-1197.828886168451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004765829154668971</v>
+        <v>0.2726460136749397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1189.946749271003</v>
+        <v>124.649703479938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2759571094498815</v>
+        <v>0.8772128533600823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.7696851727622</v>
+        <v>-1618.195629952158</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8839818319200383</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1620.061540816029</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.735326649964086</v>
+        <v>0.7355812866909379</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3378.003144916864</v>
+        <v>3389.478498166791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02415037708114498</v>
+        <v>0.02363315034201884</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-144.4709822422855</v>
+        <v>-100.138615506926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.883735908987775</v>
+        <v>0.9188491330339454</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-8.311397105925948</v>
+        <v>165.3762163555782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9933946204507362</v>
+        <v>0.8664648997131105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.5575111445989</v>
+        <v>-3146.09677414375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8607627225939809</v>
+        <v>0.04657015997756594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3146.684841736687</v>
+        <v>141.838951388321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04656155779281999</v>
+        <v>0.06176414498170883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.3152206819687</v>
+        <v>-856.9459086254083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06095856564446772</v>
+        <v>6.062921430387195e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-860.0154434793062</v>
+        <v>-12.1474365377368</v>
       </c>
       <c r="C8" t="n">
-        <v>5.713528356627753e-06</v>
+        <v>0.1370417437358576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-11.81405050501415</v>
+        <v>-97.59920794057511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1498692765653249</v>
+        <v>0.2055843468473336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-97.90862551459503</v>
+        <v>616.8386131729258</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2042358858953167</v>
+        <v>7.972851844241421e-24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>617.9794975604934</v>
+        <v>-0.008093419924972497</v>
       </c>
       <c r="C11" t="n">
-        <v>7.336792092519541e-24</v>
+        <v>0.7980584021078628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.007419441328573927</v>
+        <v>2.411963298914911e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8147849965431252</v>
+        <v>0.6878070432855142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.225837998198251e-05</v>
+        <v>-10.23772420591316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7114608395024475</v>
+        <v>0.1695078942320825</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.11665634187191</v>
+        <v>28.83616466886599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.174951496961599</v>
+        <v>0.0003314931051522947</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.67418689233152</v>
+        <v>-756.2255873965146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003636525080195361</v>
+        <v>0.4837634795375169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-743.1813738923541</v>
+        <v>-102.5345434259033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4915561302419172</v>
+        <v>0.8988328708463167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-111.1262856525112</v>
+        <v>1096.869508801069</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8904536551009481</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1110.545182802781</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8198339380048535</v>
+        <v>0.821985998199451</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3645.157083425283</v>
+        <v>3629.734897514141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0163363347934281</v>
+        <v>0.01665181268298226</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-195.5543853247501</v>
+        <v>-215.1955748651567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8483937752566922</v>
+        <v>0.8326807962266387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-261.9446687731405</v>
+        <v>-1.81208666775899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8015389346786834</v>
+        <v>0.9985802006543505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5.534357301111982</v>
+        <v>-3268.302148717503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956651608549119</v>
+        <v>0.04104153624918544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3268.225931720184</v>
+        <v>244.2974203368257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04108187919061807</v>
+        <v>0.001586104447589731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.6635765169507</v>
+        <v>-991.8736407885336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001647343076362304</v>
+        <v>1.279822562830488e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-990.0719594988179</v>
+        <v>-18.96909946902623</v>
       </c>
       <c r="C8" t="n">
-        <v>1.394970911815047e-07</v>
+        <v>0.01911638200882624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-19.16166795831966</v>
+        <v>-163.8723952796873</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01867249632225405</v>
+        <v>0.03255224752926423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-163.9760152594643</v>
+        <v>627.7693957470492</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03247670438094032</v>
+        <v>4.073686468114378e-24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>627.2879935663391</v>
+        <v>-0.04634713928186743</v>
       </c>
       <c r="C11" t="n">
-        <v>4.803113570570601e-24</v>
+        <v>0.1424355699765744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04668108390785148</v>
+        <v>6.035188208731938e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1401389074210369</v>
+        <v>0.3151854661884459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.12516574261298e-05</v>
+        <v>-12.65026998793876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3093017815094339</v>
+        <v>0.08940356266102231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-12.73460483185454</v>
+        <v>31.84797572836594</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0877918424336937</v>
+        <v>0.0001205842921840394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.8668924061401</v>
+        <v>-484.9141384846767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001199078301702844</v>
+        <v>0.6535200493295512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-496.0684770246071</v>
+        <v>737.6753928512829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6465328509141224</v>
+        <v>0.3506303749184179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>743.3584341063039</v>
+        <v>-1471.361558373064</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3472910670734251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1497.538951898955</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7538259991316894</v>
+        <v>0.7578745850911031</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4800.959581575809</v>
+        <v>4791.309688693693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001200004835085894</v>
+        <v>0.001223615152008595</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-379.7206076970015</v>
+        <v>-421.2301540863882</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6933010773957902</v>
+        <v>0.6598253963169203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-502.0926317282208</v>
+        <v>-189.7841391053257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6078791125454887</v>
+        <v>0.8427287121295532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-196.1553137147349</v>
+        <v>-3358.118290105993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8375688126436333</v>
+        <v>0.04220747808408944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3356.852096877313</v>
+        <v>74.06702679933954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04231752245167797</v>
+        <v>0.3411019788152568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.07944106469051</v>
+        <v>-1072.369860965589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3410961198969187</v>
+        <v>1.877761234525293e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1069.085404575818</v>
+        <v>-21.55853245417552</v>
       </c>
       <c r="C8" t="n">
-        <v>2.147775708421812e-08</v>
+        <v>0.009126086809326819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.88381435521102</v>
+        <v>-108.2872690824658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008455670936812555</v>
+        <v>0.1598646449608626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-108.0225889959708</v>
+        <v>594.3871126546903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1609682302953694</v>
+        <v>1.400997966202586e-21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>593.2879401093646</v>
+        <v>0.01998680689817924</v>
       </c>
       <c r="C11" t="n">
-        <v>1.838267301996197e-21</v>
+        <v>0.5363669759248448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01948630052888901</v>
+        <v>-3.812158143037135e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5469856907989644</v>
+        <v>0.5368848109171771</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.628304135504139e-05</v>
+        <v>-10.57371429675274</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5578643229147853</v>
+        <v>0.1613366391170406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-10.67643913343033</v>
+        <v>30.35054279275402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1576130973353003</v>
+        <v>0.0001434073318263335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.47541083838816</v>
+        <v>-880.6594061826625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001365845707599638</v>
+        <v>0.4177378137931608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-898.3227646237417</v>
+        <v>-303.5228531480562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4089260099210625</v>
+        <v>0.7078970966481961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-293.5928079240928</v>
+        <v>7370.773186438621</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7172058407778246</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7368.444876551836</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1359209546743161</v>
+        <v>0.1357363175713908</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06480728" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06764540" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ07081550" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07425877" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ07742151" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ08079547" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ08418214" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ08763514" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09093335" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ25538881" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25803405" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26054529" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26313895" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26585732" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ26824756" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27062304" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27328602" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27572637" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.497466039475</v>
+        <v>5647.544512168372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2869698288432871</v>
+        <v>0.03432310885369553</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.2691625737243</v>
+        <v>-7574.809392407406</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7385931190442029</v>
+        <v>0.003415386611786744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3256949139709</v>
+        <v>-5197.132716366207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.568057090311336</v>
+        <v>0.03336673489035158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2938.994747037446</v>
+        <v>-4942.66039963905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06986695355898126</v>
+        <v>0.04287901750179909</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.5659721853933</v>
+        <v>731.451744136182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04935262828696263</v>
+        <v>0.01827180881499101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1182.088115618863</v>
+        <v>162.224306315782</v>
       </c>
       <c r="C7" t="n">
-        <v>5.395853632165056e-10</v>
+        <v>0.5129828433246478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.10545794927232</v>
+        <v>150.6274958157008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06788658401608176</v>
+        <v>0.0505878142367687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-173.5069739458386</v>
+        <v>-1198.386116051623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0263311587869013</v>
+        <v>3.145741265608967e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>722.3577989354596</v>
+        <v>-13.24571079802735</v>
       </c>
       <c r="C10" t="n">
-        <v>4.940858663703281e-30</v>
+        <v>0.1100784490350273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01670374774424794</v>
+        <v>-192.9384582915875</v>
       </c>
       <c r="C11" t="n">
-        <v>0.607060510864907</v>
+        <v>0.01368743681284751</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.314098710641414e-05</v>
+        <v>738.4571545755616</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3895144727521501</v>
+        <v>3.068378122710816e-31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.818317608561156</v>
+        <v>-0.01742097655690067</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4460909649239337</v>
+        <v>0.5919110479774294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.03885676391339</v>
+        <v>5.214441441001393e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>7.902878824158761e-07</v>
+        <v>0.3978097168806588</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-228.1638695685485</v>
+        <v>-4.409317097707444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8350162200555852</v>
+        <v>0.5637522818156443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>569.2409212117411</v>
+        <v>39.31293857636881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4771867208577711</v>
+        <v>1.205254940222836e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-60.59605326519105</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9562214962920521</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>460.2071264478043</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5651432000391414</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4778.772041565376</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3335620888667261</v>
+      <c r="B19" t="n">
+        <v>5274.158472510791</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2854388144880188</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3931.980958789404</v>
+        <v>7746.004600637669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008816255045209553</v>
+        <v>0.003806113442815872</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-99.43053580084208</v>
+        <v>-5183.004052760492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.918967149026988</v>
+        <v>0.04742987675525355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.1625295095222</v>
+        <v>-5069.023839372901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8972400837964841</v>
+        <v>0.03865160275164621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1745.760464723774</v>
+        <v>-4859.226204019713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4036651854989654</v>
+        <v>0.04729510209658014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.29729705981393</v>
+        <v>670.7882760904707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3972171730512714</v>
+        <v>0.03082663223014452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1195.373004218941</v>
+        <v>-211.0817643205829</v>
       </c>
       <c r="C7" t="n">
-        <v>3.657518855066163e-10</v>
+        <v>0.3919386267963497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-23.43846837933217</v>
+        <v>57.07851913500264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004933691171414198</v>
+        <v>0.4658879646377384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-165.5477495856342</v>
+        <v>-1202.707996162474</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03332187542781269</v>
+        <v>2.811698601214166e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.4903045799097</v>
+        <v>-23.04650721862184</v>
       </c>
       <c r="C10" t="n">
-        <v>1.23961719577292e-27</v>
+        <v>0.005658423374751379</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01097384859614635</v>
+        <v>-183.7494578060234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.742821791812472</v>
+        <v>0.01813654938444839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.298467652275209e-05</v>
+        <v>693.6929108005293</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7144350140358966</v>
+        <v>3.23472439001115e-28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.432716688207171</v>
+        <v>-0.01325454033477088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7505286318072424</v>
+        <v>0.6912741126742425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.18198258149251</v>
+        <v>-2.31883319787489e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.285662778856185e-05</v>
+        <v>0.7114987665844192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-461.73333196482</v>
+        <v>-1.430816555076977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6735499334412293</v>
+        <v>0.8515533795506866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-299.2468035979546</v>
+        <v>32.05976206777068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7084150382809195</v>
+        <v>5.43832537730159e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-607.003012011224</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5816150210705746</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-325.6646379531379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6831737942787628</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>873.4711365112307</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8564578601884205</v>
+      <c r="B19" t="n">
+        <v>1226.288341961202</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7993411936340062</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4957.986117825538</v>
+        <v>2724.53909888409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001070669880388247</v>
+        <v>0.4553739081838598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-490.7845221435221</v>
+        <v>-1250.217367766923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6214046028566762</v>
+        <v>0.7253937429970994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-190.2702471874123</v>
+        <v>319.0873732480509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8480762461899292</v>
+        <v>0.9265994213027539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5709.000721861785</v>
+        <v>595.0904895723206</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006621145446147801</v>
+        <v>0.8635331351878983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.19613384121689</v>
+        <v>915.6248568993026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2648889482612267</v>
+        <v>0.003280811552561296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1208.967381020638</v>
+        <v>-14.16107496576836</v>
       </c>
       <c r="C7" t="n">
-        <v>2.243226156350992e-10</v>
+        <v>0.9542119201333457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.82324783828107</v>
+        <v>65.7937493428467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1274217764957826</v>
+        <v>0.4006517501565446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-141.8885957884873</v>
+        <v>-1205.498001781406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06773641395663192</v>
+        <v>2.745757261276916e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.9622679167255</v>
+        <v>-12.66492896542794</v>
       </c>
       <c r="C10" t="n">
-        <v>5.520267055084234e-22</v>
+        <v>0.133080753125965</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0009399051864314167</v>
+        <v>-150.1269626967944</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9768202089854863</v>
+        <v>0.05365141068612737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.759259888967714e-05</v>
+        <v>620.2063766865655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7734129608148774</v>
+        <v>9.065582022740617e-23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.34412214369923</v>
+        <v>-0.01058218809172087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06286905735001606</v>
+        <v>0.7436199754389473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.00375283163432</v>
+        <v>2.208855661645376e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008692746202386915</v>
+        <v>0.7178551833104192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-389.2735515665968</v>
+        <v>-13.1268238037241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7220455548709646</v>
+        <v>0.08928814278480698</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.075169692514123</v>
+        <v>26.54324899128483</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9931589590635711</v>
+        <v>0.001065872100891412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-272.76894501259</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8045779659394061</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>104.0023192433221</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8997289522610444</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4727.282034550251</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3305221987440302</v>
+      <c r="B19" t="n">
+        <v>5607.808861356883</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2485638194026963</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3725.014713742691</v>
+        <v>6717.529522141865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01609378639884389</v>
+        <v>0.01277558940785771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-532.6845283388741</v>
+        <v>-6369.073687684883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5925813956585781</v>
+        <v>0.01395987472831499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-369.9964088657576</v>
+        <v>-4845.474454099205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7099862165977117</v>
+        <v>0.04813183096804059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4020.334011410961</v>
+        <v>-4696.351464471632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01425366618333938</v>
+        <v>0.05528151948842362</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.83208600447628</v>
+        <v>616.6788615438555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6917682072193843</v>
+        <v>0.04898983159998931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1216.089211608589</v>
+        <v>-290.5790261607431</v>
       </c>
       <c r="C7" t="n">
-        <v>2.111217011398236e-10</v>
+        <v>0.2485416932637795</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.99694070338107</v>
+        <v>24.4456060955863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02975298431815491</v>
+        <v>0.7531348530748443</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-98.31475226277487</v>
+        <v>-1212.214572793829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2082791084336607</v>
+        <v>2.466460480292611e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.0630917614221</v>
+        <v>-17.27424407184199</v>
       </c>
       <c r="C10" t="n">
-        <v>2.891798012478861e-23</v>
+        <v>0.0370643144675265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01239052546264051</v>
+        <v>-119.448254600765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6984295432991721</v>
+        <v>0.1264278537949756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.700745548436048e-06</v>
+        <v>645.2026828694927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9645127373422575</v>
+        <v>3.077259579513356e-24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.052171664942921</v>
+        <v>-0.01668732562483845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3537285961112278</v>
+        <v>0.6014559657607096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.8971839172072</v>
+        <v>-1.103456406903955e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>5.525133781903482e-06</v>
+        <v>0.9854676051286689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-279.2167543846996</v>
+        <v>-4.833185045363391</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7988206552722329</v>
+        <v>0.525390915671579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.1352550986606</v>
+        <v>40.66106513955712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5834890648372897</v>
+        <v>3.586117078274811e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-373.7933360945322</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7346934356994528</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>335.5636266971835</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6796774011856754</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1457.960808809921</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7642289496402029</v>
+      <c r="B19" t="n">
+        <v>2490.356387904053</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6079129875208034</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4202.888828866789</v>
+        <v>7547.082890011134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004466361309944916</v>
+        <v>0.004628346822745491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-393.0678819656035</v>
+        <v>-6640.740476463921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6811376966598908</v>
+        <v>0.009824745322862571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-174.4929933076016</v>
+        <v>-5118.103247854749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8551610039901966</v>
+        <v>0.03621071563936388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3554.658722521741</v>
+        <v>-4920.394177090681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02401580014962744</v>
+        <v>0.04388270334864274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.6686521430393</v>
+        <v>655.8506677030196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1448473586165746</v>
+        <v>0.03366981675849895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1333.215365331709</v>
+        <v>-236.9138491273626</v>
       </c>
       <c r="C7" t="n">
-        <v>2.919586300066321e-12</v>
+        <v>0.3402121641298428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.96854442655807</v>
+        <v>112.0937511879716</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07007308768824004</v>
+        <v>0.1463401363423115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-166.5587479516174</v>
+        <v>-1323.500957577215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03244341889887397</v>
+        <v>4.191669654022238e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.0040514153147</v>
+        <v>-14.10786136643806</v>
       </c>
       <c r="C10" t="n">
-        <v>3.035376175234501e-22</v>
+        <v>0.08812506218422853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01258346992425002</v>
+        <v>-196.3456201026291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6940061611733728</v>
+        <v>0.01187389193420413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.847447678882711e-05</v>
+        <v>629.3981717768165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4284590419264406</v>
+        <v>1.621170529109463e-23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-11.74092353070566</v>
+        <v>-0.0127942663050716</v>
       </c>
       <c r="C13" t="n">
-        <v>0.120756075174222</v>
+        <v>0.6887492583478361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.27429645125945</v>
+        <v>4.591797163832441e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>6.48071213573234e-06</v>
+        <v>0.4523419974618065</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1265.542844713658</v>
+        <v>-9.863149462773702</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2491339157985089</v>
+        <v>0.1928077172643367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>227.3107307948517</v>
+        <v>35.89136068615463</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7806321879361363</v>
+        <v>7.821032718143633e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1308.128821845608</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2356442909574183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100.5245285396899</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9018470758260622</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3827.2040006385</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4337860266270711</v>
+      <c r="B19" t="n">
+        <v>4687.111899113117</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3368215245743306</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7223.084245681586</v>
+        <v>14121.01136454242</v>
       </c>
       <c r="C2" t="n">
-        <v>2.96000931162813e-05</v>
+        <v>8.59241182350305e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2663.054939853771</v>
+        <v>-11739.70622758823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03609650213034483</v>
+        <v>0.001052761829722274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2260.533277450554</v>
+        <v>-10709.49569759975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07526226815211061</v>
+        <v>0.001901462744623056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-6122.929609177428</v>
+        <v>-10317.60222277377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009084520136036192</v>
+        <v>0.002766853009426637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.7685155113058</v>
+        <v>589.8596001810047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1855017677491959</v>
+        <v>0.05652363579608755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1063.165464570241</v>
+        <v>-254.5932408895038</v>
       </c>
       <c r="C7" t="n">
-        <v>2.010830504638063e-08</v>
+        <v>0.3056364893486381</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.25147838111528</v>
+        <v>103.7690512581148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08084725310407818</v>
+        <v>0.1771328275222099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-230.0607827520028</v>
+        <v>-1042.501698797422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003411368988496585</v>
+        <v>3.767717003966091e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.9704632000946</v>
+        <v>-13.51388343588172</v>
       </c>
       <c r="C10" t="n">
-        <v>2.885395188845914e-26</v>
+        <v>0.0981637109204173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01086226875602221</v>
+        <v>-267.9923071027872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.731004496045046</v>
+        <v>0.0006826192777913909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.620162530967916e-05</v>
+        <v>675.7050233639511</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7897704560974728</v>
+        <v>4.570904501723446e-27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.3065421627801</v>
+        <v>-0.009662326169680966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1009698061297968</v>
+        <v>0.7598617445940882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.67218230000813</v>
+        <v>8.205143126691895e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004551532727747081</v>
+        <v>0.8925492721179193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1197.828886168451</v>
+        <v>-10.2594659650664</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2726460136749397</v>
+        <v>0.1724267586307751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.649703479938</v>
+        <v>24.94298803521974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8772128533600823</v>
+        <v>0.002760346810659689</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1228.885565551523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2627526354995405</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-63.16081388924911</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9376176654076008</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1618.195629952158</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7355812866909379</v>
+      <c r="B19" t="n">
+        <v>-812.5910942862133</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8651946622295621</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3389.478498166791</v>
+        <v>7370.855798006472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02363315034201884</v>
+        <v>0.005283598422928783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-100.138615506926</v>
+        <v>-7025.461266294036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9188491330339454</v>
+        <v>0.005981942546836079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3762163555782</v>
+        <v>-5188.880624612727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8664648997131105</v>
+        <v>0.03211087712469719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3146.09677414375</v>
+        <v>-4929.330297590566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04657015997756594</v>
+        <v>0.04162815803699558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.838951388321</v>
+        <v>631.5403941444912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06176414498170883</v>
+        <v>0.04035525995629005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-856.9459086254083</v>
+        <v>-10.13703821677956</v>
       </c>
       <c r="C7" t="n">
-        <v>6.062921430387195e-06</v>
+        <v>0.9666476788956049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.1474365377368</v>
+        <v>140.8873679183746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1370417437358576</v>
+        <v>0.06351650090953334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-97.59920794057511</v>
+        <v>-880.9936945537156</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2055843468473336</v>
+        <v>3.312506368602994e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>616.8386131729258</v>
+        <v>-10.56235800391658</v>
       </c>
       <c r="C10" t="n">
-        <v>7.972851844241421e-24</v>
+        <v>0.1963931832466881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.008093419924972497</v>
+        <v>-115.5891193257134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7980584021078628</v>
+        <v>0.134869241621737</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.411963298914911e-05</v>
+        <v>629.1355027261493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6878070432855142</v>
+        <v>1.089601550555827e-24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.23772420591316</v>
+        <v>-0.007728724162998019</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1695078942320825</v>
+        <v>0.8069648544378809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.83616466886599</v>
+        <v>2.23072119710135e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003314931051522947</v>
+        <v>0.7099211913615275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-756.2255873965146</v>
+        <v>-8.715495407117222</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4837634795375169</v>
+        <v>0.2425031714317525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-102.5345434259033</v>
+        <v>29.05252969681494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8988328708463167</v>
+        <v>0.0002946388382551976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-707.2997241564924</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5152934230616022</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-210.8640047158188</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.793633381003481</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1096.869508801069</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.821985998199451</v>
+      <c r="B19" t="n">
+        <v>1788.061095113567</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7140499639168795</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3629.734897514141</v>
+        <v>7405.537600870319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01665181268298226</v>
+        <v>0.004900317877676889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-215.1955748651567</v>
+        <v>-7112.519665815447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8326807962266387</v>
+        <v>0.005191407631390582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.81208666775899</v>
+        <v>-5202.884980402171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9985802006543505</v>
+        <v>0.03044898010808985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3268.302148717503</v>
+        <v>-4998.980529545478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04104153624918544</v>
+        <v>0.03744045427014081</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244.2974203368257</v>
+        <v>860.731107022893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001586104447589731</v>
+        <v>0.00494849329149876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-991.8736407885336</v>
+        <v>-8.373795826970024</v>
       </c>
       <c r="C7" t="n">
-        <v>1.279822562830488e-07</v>
+        <v>0.9724087298333515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-18.96909946902623</v>
+        <v>234.206379107817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01911638200882624</v>
+        <v>0.002438037548249375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-163.8723952796873</v>
+        <v>-1020.016453486038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03255224752926423</v>
+        <v>5.530055665504536e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.7693957470492</v>
+        <v>-17.21735037476993</v>
       </c>
       <c r="C10" t="n">
-        <v>4.073686468114378e-24</v>
+        <v>0.03333081060019757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04634713928186743</v>
+        <v>-187.6072267281807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1424355699765744</v>
+        <v>0.01447068388257372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.035188208731938e-05</v>
+        <v>650.5459190632464</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3151854661884459</v>
+        <v>1.043429159087501e-25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.65026998793876</v>
+        <v>-0.05137944978188086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08940356266102231</v>
+        <v>0.1034993057016179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.84797572836594</v>
+        <v>5.984423092021661e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001205842921840394</v>
+        <v>0.3184188384008496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-484.9141384846767</v>
+        <v>-10.63581188562917</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6535200493295512</v>
+        <v>0.1532634714170395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>737.6753928512829</v>
+        <v>30.57247776216976</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3506303749184179</v>
+        <v>0.000217443342357554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-265.7218259677652</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8068596855735103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>646.7875154519718</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4123454518533695</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1471.361558373064</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7578745850911031</v>
+      <c r="B19" t="n">
+        <v>-894.5730588550368</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8509818308844542</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4791.309688693693</v>
+        <v>8116.304817696619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001223615152008595</v>
+        <v>0.002338777500836103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-421.2301540863882</v>
+        <v>-6405.51486308447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6598253963169203</v>
+        <v>0.01299544011810717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-189.7841391053257</v>
+        <v>-5072.836687512365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8427287121295532</v>
+        <v>0.03786419446378841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3358.118290105993</v>
+        <v>-4853.119700944904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04220747808408944</v>
+        <v>0.0468348043746788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.06702679933954</v>
+        <v>930.6129616198295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3411019788152568</v>
+        <v>0.002871848970378708</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1072.369860965589</v>
+        <v>-78.97676916406373</v>
       </c>
       <c r="C7" t="n">
-        <v>1.877761234525293e-08</v>
+        <v>0.7496353050187609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.55853245417552</v>
+        <v>66.28469524007747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009126086809326819</v>
+        <v>0.3935684242641793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-108.2872690824658</v>
+        <v>-1074.61279970195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1598646449608626</v>
+        <v>1.692588777585523e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>594.3871126546903</v>
+        <v>-20.70595929417399</v>
       </c>
       <c r="C10" t="n">
-        <v>1.400997966202586e-21</v>
+        <v>0.01215766347892219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01998680689817924</v>
+        <v>-129.0814409358699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5363669759248448</v>
+        <v>0.09379328476217241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.812158143037135e-05</v>
+        <v>612.3916061335287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5368848109171771</v>
+        <v>8.167933519086865e-23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-10.57371429675274</v>
+        <v>0.01603145871785329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1613366391170406</v>
+        <v>0.6192860412174002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.35054279275402</v>
+        <v>-3.808707446817847e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001434073318263335</v>
+        <v>0.5361923562879427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-880.6594061826625</v>
+        <v>-8.654080409955926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4177378137931608</v>
+        <v>0.2515195878695601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-303.5228531480562</v>
+        <v>29.8331442744315</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7078970966481961</v>
+        <v>0.0001803226359936902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-773.6811048726299</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4789358456931013</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-275.890081840791</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7330963182553552</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7370.773186438621</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1357363175713908</v>
+      <c r="B19" t="n">
+        <v>8348.616703360931</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09049827250104589</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ25538881" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ25803405" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26054529" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26313895" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26585732" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ26824756" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27062304" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27328602" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27572637" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ25938017" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ26162505" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ26408810" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ26654244" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ26888932" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ27129805" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ27366117" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ27636495" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ27922604" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5647.544512168372</v>
+        <v>5882.255850981759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03432310885369553</v>
+        <v>0.02699573404792036</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7574.809392407406</v>
+        <v>-7578.756290258945</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003415386611786744</v>
+        <v>0.003399487074933047</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5197.132716366207</v>
+        <v>-5203.236966513424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03336673489035158</v>
+        <v>0.03316417678856388</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4942.66039963905</v>
+        <v>-4943.45454671747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04287901750179909</v>
+        <v>0.0428510163213659</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>731.451744136182</v>
+        <v>733.1748801069305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01827180881499101</v>
+        <v>0.0180014461966189</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.224306315782</v>
+        <v>173.8079694039326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5129828433246478</v>
+        <v>0.4829522561439638</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.6274958157008</v>
+        <v>146.2770726348054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0505878142367687</v>
+        <v>0.05728329305482562</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1198.386116051623</v>
+        <v>-1205.698137360393</v>
       </c>
       <c r="C9" t="n">
-        <v>3.145741265608967e-10</v>
+        <v>2.397221849306949e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.24571079802735</v>
+        <v>-13.71305618143187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1100784490350273</v>
+        <v>0.09762991401462788</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-192.9384582915875</v>
+        <v>-204.2095285956829</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01368743681284751</v>
+        <v>0.00845902511686996</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>738.4571545755616</v>
+        <v>738.0424451655032</v>
       </c>
       <c r="C12" t="n">
-        <v>3.068378122710816e-31</v>
+        <v>3.30688636679947e-31</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01742097655690067</v>
+        <v>-0.01479239544641995</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5919110479774294</v>
+        <v>0.6480410220380568</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.214441441001393e-05</v>
+        <v>4.00078803902679e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3978097168806588</v>
+        <v>0.5092288436736747</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.409317097707444</v>
+        <v>-3.958183180042494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5637522818156443</v>
+        <v>0.6037627537807922</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.31293857636881</v>
+        <v>38.54918234425368</v>
       </c>
       <c r="C16" t="n">
-        <v>1.205254940222836e-06</v>
+        <v>1.758197637898786e-06</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-60.59605326519105</v>
+        <v>39.35367527110111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9562214962920521</v>
+        <v>0.9714581787103265</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.2071264478043</v>
+        <v>442.9334079696063</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5651432000391414</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5274.158472510791</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2854388144880188</v>
+        <v>0.5797648325918479</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7746.004600637669</v>
+        <v>7800.411658939394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003806113442815872</v>
+        <v>0.003456107357626221</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5183.004052760492</v>
+        <v>-5181.97848220993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04742987675525355</v>
+        <v>0.0474351626921056</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5069.023839372901</v>
+        <v>-5070.721715588615</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03865160275164621</v>
+        <v>0.03855228559501057</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4859.226204019713</v>
+        <v>-4858.640558305692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04729510209658014</v>
+        <v>0.04728343798484979</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>670.7882760904707</v>
+        <v>672.9165817014533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03082663223014452</v>
+        <v>0.03021121577897777</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-211.0817643205829</v>
+        <v>-207.6911602875397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3919386267963497</v>
+        <v>0.3988157484243354</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.07851913500264</v>
+        <v>55.79541671071011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4658879646377384</v>
+        <v>0.4749764131089802</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1202.707996162474</v>
+        <v>-1204.612551286812</v>
       </c>
       <c r="C9" t="n">
-        <v>2.811698601214166e-10</v>
+        <v>2.536988056767632e-10</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.04650721862184</v>
+        <v>-23.12557954939038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005658423374751379</v>
+        <v>0.005455282432881107</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-183.7494578060234</v>
+        <v>-186.3676263131354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01813654938444839</v>
+        <v>0.01559899137682981</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>693.6929108005293</v>
+        <v>693.5627702495754</v>
       </c>
       <c r="C12" t="n">
-        <v>3.23472439001115e-28</v>
+        <v>3.225820078053526e-28</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01325454033477088</v>
+        <v>-0.01252016956250831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6912741126742425</v>
+        <v>0.7064690208611233</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.31883319787489e-05</v>
+        <v>-2.630428501686624e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7114987665844192</v>
+        <v>0.6687458893426627</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.430816555076977</v>
+        <v>-1.324294888474402</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8515533795506866</v>
+        <v>0.8622619102945992</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.05976206777068</v>
+        <v>31.8731174030618</v>
       </c>
       <c r="C16" t="n">
-        <v>5.43832537730159e-05</v>
+        <v>5.566648252173529e-05</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-607.003012011224</v>
+        <v>-577.6421623680952</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5816150210705746</v>
+        <v>0.597934721287918</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-325.6646379531379</v>
+        <v>-330.7208272523491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6831737942787628</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1226.288341961202</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7993411936340062</v>
+        <v>0.6783813629271236</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2724.53909888409</v>
+        <v>2963.712374023031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4553739081838598</v>
+        <v>0.4160626629250549</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1250.217367766923</v>
+        <v>-1234.818220294421</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7253937429970994</v>
+        <v>0.7286557916246319</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.0873732480509</v>
+        <v>338.0781978128923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9265994213027539</v>
+        <v>0.9222482519423497</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>595.0904895723206</v>
+        <v>626.1984946017769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8635331351878983</v>
+        <v>0.8564793590792391</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915.6248568993026</v>
+        <v>918.0063698856573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003280811552561296</v>
+        <v>0.003202054573655613</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.16107496576836</v>
+        <v>-3.496227349257595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9542119201333457</v>
+        <v>0.9886822902424295</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.7937493428467</v>
+        <v>60.67124675797533</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4006517501565446</v>
+        <v>0.4376123797453503</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.498001781406</v>
+        <v>-1215.748209383992</v>
       </c>
       <c r="C9" t="n">
-        <v>2.745757261276916e-10</v>
+        <v>1.862296770957315e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.66492896542794</v>
+        <v>-13.07371937052508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.133080753125965</v>
+        <v>0.1207100535836721</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-150.1269626967944</v>
+        <v>-161.0277167984347</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05365141068612737</v>
+        <v>0.03707457199005477</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>620.2063766865655</v>
+        <v>618.5863293503924</v>
       </c>
       <c r="C12" t="n">
-        <v>9.065582022740617e-23</v>
+        <v>1.14249281993725e-22</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01058218809172087</v>
+        <v>-0.008017957541642829</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7436199754389473</v>
+        <v>0.8038380245305274</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.208855661645376e-05</v>
+        <v>9.383858909400131e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7178551833104192</v>
+        <v>0.875997033035508</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.1268238037241</v>
+        <v>-12.87282925646605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08928814278480698</v>
+        <v>0.09553846216309859</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.54324899128483</v>
+        <v>25.62823624396137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001065872100891412</v>
+        <v>0.001498608776601534</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-272.76894501259</v>
+        <v>-144.8046945259665</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8045779659394061</v>
+        <v>0.8949737483231143</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.0023192433221</v>
+        <v>102.4384555866965</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8997289522610444</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5607.808861356883</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2485638194026963</v>
+        <v>0.9012348044234944</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6717.529522141865</v>
+        <v>6835.481788376902</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01277558940785771</v>
+        <v>0.01098331475031767</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6369.073687684883</v>
+        <v>-6368.565762623355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01395987472831499</v>
+        <v>0.01395447673097833</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4845.474454099205</v>
+        <v>-4847.664427109679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04813183096804059</v>
+        <v>0.04800013987646248</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4696.351464471632</v>
+        <v>-4692.131616220977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05528151948842362</v>
+        <v>0.0554660657200412</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616.6788615438555</v>
+        <v>618.6043995584591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04898983159998931</v>
+        <v>0.04824167888522613</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-290.5790261607431</v>
+        <v>-284.8045585560766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2485416932637795</v>
+        <v>0.257525616815062</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.4456060955863</v>
+        <v>21.40032246192953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7531348530748443</v>
+        <v>0.7824148655521915</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1212.214572793829</v>
+        <v>-1217.201564536156</v>
       </c>
       <c r="C9" t="n">
-        <v>2.466460480292611e-10</v>
+        <v>1.965922714329241e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.27424407184199</v>
+        <v>-17.4403106415855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0370643144675265</v>
+        <v>0.0351194520768248</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-119.448254600765</v>
+        <v>-124.5467444097742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1264278537949756</v>
+        <v>0.1080974037883397</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.2026828694927</v>
+        <v>644.7802999044325</v>
       </c>
       <c r="C12" t="n">
-        <v>3.077259579513356e-24</v>
+        <v>3.215336930345513e-24</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01668732562483845</v>
+        <v>-0.01541395786095441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6014559657607096</v>
+        <v>0.6283987658181844</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.103456406903955e-06</v>
+        <v>-7.086251486049409e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9854676051286689</v>
+        <v>0.9051032110032475</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.833185045363391</v>
+        <v>-4.684251612722904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.525390915671579</v>
+        <v>0.5378801802163463</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.66106513955712</v>
+        <v>40.23321152948611</v>
       </c>
       <c r="C16" t="n">
-        <v>3.586117078274811e-06</v>
+        <v>4.086379890236087e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-373.7933360945322</v>
+        <v>-320.0548317472847</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7346934356994528</v>
+        <v>0.7706489913052493</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>335.5636266971835</v>
+        <v>332.9006860809268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6796774011856754</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2490.356387904053</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6079129875208034</v>
+        <v>0.6820327217005977</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7547.082890011134</v>
+        <v>7747.436453693541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004628346822745491</v>
+        <v>0.003546985026181389</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6640.740476463921</v>
+        <v>-6644.177513557837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009824745322862571</v>
+        <v>0.009785682834584605</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5118.103247854749</v>
+        <v>-5127.267109266731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03621071563936388</v>
+        <v>0.03587452027989267</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4920.394177090681</v>
+        <v>-4917.864768478377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04388270334864274</v>
+        <v>0.0439880666694238</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8506677030196</v>
+        <v>656.9673506035649</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03366981675849895</v>
+        <v>0.03336502767859349</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-236.9138491273626</v>
+        <v>-228.9872368023171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3402121641298428</v>
+        <v>0.3563391066267475</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.0937511879716</v>
+        <v>107.3901391864808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1463401363423115</v>
+        <v>0.1631723103759186</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1323.500957577215</v>
+        <v>-1327.937315309032</v>
       </c>
       <c r="C9" t="n">
-        <v>4.191669654022238e-12</v>
+        <v>3.507327013593346e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.10786136643806</v>
+        <v>-14.40645546053906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08812506218422853</v>
+        <v>0.08138565042130129</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-196.3456201026291</v>
+        <v>-206.0010787426083</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01187389193420413</v>
+        <v>0.007776076496713363</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>629.3981717768165</v>
+        <v>629.083718454795</v>
       </c>
       <c r="C12" t="n">
-        <v>1.621170529109463e-23</v>
+        <v>1.698076594237422e-23</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0127942663050716</v>
+        <v>-0.0104148694877191</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6887492583478361</v>
+        <v>0.7436285883601623</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.591797163832441e-05</v>
+        <v>3.504060103838517e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4523419974618065</v>
+        <v>0.5594731581616191</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.863149462773702</v>
+        <v>-9.534396408222864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1928077172643367</v>
+        <v>0.2075870183194473</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.89136068615463</v>
+        <v>35.22154929138991</v>
       </c>
       <c r="C16" t="n">
-        <v>7.821032718143633e-06</v>
+        <v>1.064645657779088e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1308.128821845608</v>
+        <v>-1180.860846269361</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2356442909574183</v>
+        <v>0.2808492756772589</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.5245285396899</v>
+        <v>92.58737535744842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9018470758260622</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4687.111899113117</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3368215245743306</v>
+        <v>0.9095563383869294</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14121.01136454242</v>
+        <v>14078.9842535266</v>
       </c>
       <c r="C2" t="n">
-        <v>8.59241182350305e-05</v>
+        <v>8.651080558743778e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11739.70622758823</v>
+        <v>-11734.01890572301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001052761829722274</v>
+        <v>0.001055948055653984</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10709.49569759975</v>
+        <v>-10704.28675121154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001901462744623056</v>
+        <v>0.001906793833832155</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10317.60222277377</v>
+        <v>-10313.99137976524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002766853009426637</v>
+        <v>0.002770954192167784</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.8596001810047</v>
+        <v>589.0072879837244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05652363579608755</v>
+        <v>0.05680408993390939</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-254.5932408895038</v>
+        <v>-256.4633382290447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3056364893486381</v>
+        <v>0.3015361645809959</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.7690512581148</v>
+        <v>104.6023045466813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1771328275222099</v>
+        <v>0.1727266784781926</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1042.501698797422</v>
+        <v>-1041.511794269309</v>
       </c>
       <c r="C9" t="n">
-        <v>3.767717003966091e-08</v>
+        <v>3.802164202730456e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.51388343588172</v>
+        <v>-13.46728693630927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0981637109204173</v>
+        <v>0.09907624083273085</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-267.9923071027872</v>
+        <v>-266.3747718695569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006826192777913909</v>
+        <v>0.0006701540558997265</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>675.7050233639511</v>
+        <v>675.9198101728052</v>
       </c>
       <c r="C12" t="n">
-        <v>4.570904501723446e-27</v>
+        <v>4.213972083831398e-27</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009662326169680966</v>
+        <v>-0.01003160752049762</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7598617445940882</v>
+        <v>0.7503672089689436</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.205143126691895e-06</v>
+        <v>1.002693075741934e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8925492721179193</v>
+        <v>0.8667889172610572</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.2594659650664</v>
+        <v>-10.29710168513296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1724267586307751</v>
+        <v>0.1705956356671486</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.94298803521974</v>
+        <v>25.07707371832055</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002760346810659689</v>
+        <v>0.002499083320268661</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1228.885565551523</v>
+        <v>-1247.692557337277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2627526354995405</v>
+        <v>0.2530019852605663</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-63.16081388924911</v>
+        <v>-62.38221734626836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9376176654076008</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-812.5910942862133</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8651946622295621</v>
+        <v>0.9383731039167902</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7370.855798006472</v>
+        <v>7450.976437806263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005283598422928783</v>
+        <v>0.004660005549308273</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7025.461266294036</v>
+        <v>-7029.240552105663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005981942546836079</v>
+        <v>0.005946656927965764</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5188.880624612727</v>
+        <v>-5192.092192167813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03211087712469719</v>
+        <v>0.0319760559890624</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4929.330297590566</v>
+        <v>-4928.396721471495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04162815803699558</v>
+        <v>0.04163404521930436</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>631.5403941444912</v>
+        <v>632.818218419412</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04035525995629005</v>
+        <v>0.03990809750751752</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.13703821677956</v>
+        <v>-4.310247859816556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9666476788956049</v>
+        <v>0.9857823941937987</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.8873679183746</v>
+        <v>139.1708373007463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06351650090953334</v>
+        <v>0.06624571610804161</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-880.9936945537156</v>
+        <v>-883.0532265418376</v>
       </c>
       <c r="C9" t="n">
-        <v>3.312506368602994e-06</v>
+        <v>3.100423111908591e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.56235800391658</v>
+        <v>-10.69202224748575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1963931832466881</v>
+        <v>0.190471278295557</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-115.5891193257134</v>
+        <v>-118.8211788570754</v>
       </c>
       <c r="C11" t="n">
-        <v>0.134869241621737</v>
+        <v>0.1217879419302473</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>629.1355027261493</v>
+        <v>628.5675520415093</v>
       </c>
       <c r="C12" t="n">
-        <v>1.089601550555827e-24</v>
+        <v>1.137597923169417e-24</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007728724162998019</v>
+        <v>-0.006808835934052278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8069648544378809</v>
+        <v>0.8290055440536241</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.23072119710135e-05</v>
+        <v>1.809565859874256e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7099211913615275</v>
+        <v>0.7584737285546386</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.715495407117222</v>
+        <v>-8.622211331634315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2425031714317525</v>
+        <v>0.2472290725057821</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.05252969681494</v>
+        <v>28.77223831463045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002946388382551976</v>
+        <v>0.0003156572478386165</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-707.2997241564924</v>
+        <v>-659.9540756099069</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5152934230616022</v>
+        <v>0.5408681224103199</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-210.8640047158188</v>
+        <v>-212.5667554507224</v>
       </c>
       <c r="C18" t="n">
-        <v>0.793633381003481</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1788.061095113567</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7140499639168795</v>
+        <v>0.7919692230714064</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7405.537600870319</v>
+        <v>7363.429294049703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004900317877676889</v>
+        <v>0.004981331026041868</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7112.519665815447</v>
+        <v>-7112.49644007711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005191407631390582</v>
+        <v>0.005183567006396109</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5202.884980402171</v>
+        <v>-5201.5935094852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03044898010808985</v>
+        <v>0.03045992074060573</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4998.980529545478</v>
+        <v>-4999.524670938078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03744045427014081</v>
+        <v>0.03738570363064663</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860.731107022893</v>
+        <v>859.7467420676539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00494849329149876</v>
+        <v>0.004983951904226992</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.373795826970024</v>
+        <v>-10.28132529863089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9724087298333515</v>
+        <v>0.9660910930164611</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.206379107817</v>
+        <v>235.1696150372811</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002438037548249375</v>
+        <v>0.002283567676287423</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1020.016453486038</v>
+        <v>-1018.669211023866</v>
       </c>
       <c r="C9" t="n">
-        <v>5.530055665504536e-08</v>
+        <v>5.598894162097108e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.21735037476993</v>
+        <v>-17.1791089713482</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03333081060019757</v>
+        <v>0.0336364133641598</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-187.6072267281807</v>
+        <v>-185.7535472754766</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01447068388257372</v>
+        <v>0.01460864854939541</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.5459190632464</v>
+        <v>650.6637951521602</v>
       </c>
       <c r="C12" t="n">
-        <v>1.043429159087501e-25</v>
+        <v>9.973948546068295e-26</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05137944978188086</v>
+        <v>-0.05188466866680126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1034993057016179</v>
+        <v>0.09885737940803123</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.984423092021661e-05</v>
+        <v>6.203406924783756e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3184188384008496</v>
+        <v>0.2916535148961216</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.63581188562917</v>
+        <v>-10.69828044625414</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1532634714170395</v>
+        <v>0.1503849123027428</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.57247776216976</v>
+        <v>30.73814828525687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000217443342357554</v>
+        <v>0.0001841505498479858</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-265.7218259677652</v>
+        <v>-287.8513214620746</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8068596855735103</v>
+        <v>0.7898880472798862</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>646.7875154519718</v>
+        <v>650.0895960384412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4123454518533695</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-894.5730588550368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8509818308844542</v>
+        <v>0.4097639269533658</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8116.304817696619</v>
+        <v>8493.162386396321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002338777500836103</v>
+        <v>0.001400434088040132</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6405.51486308447</v>
+        <v>-6420.693040283582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01299544011810717</v>
+        <v>0.01281273257773337</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5072.836687512365</v>
+        <v>-5092.078364036319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03786419446378841</v>
+        <v>0.03720595177267782</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4853.119700944904</v>
+        <v>-4852.145584576079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0468348043746788</v>
+        <v>0.04695467518221597</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930.6129616198295</v>
+        <v>935.024508246638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002871848970378708</v>
+        <v>0.002750606925800769</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-78.97676916406373</v>
+        <v>-57.71798923184096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7496353050187609</v>
+        <v>0.8154185505733035</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.28469524007747</v>
+        <v>60.68120721279186</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3935684242641793</v>
+        <v>0.4345148666906828</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1074.61279970195</v>
+        <v>-1089.342930723517</v>
       </c>
       <c r="C9" t="n">
-        <v>1.692588777585523e-08</v>
+        <v>1.054763071525024e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.70595929417399</v>
+        <v>-20.96076033917458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01215766347892219</v>
+        <v>0.01115185157905127</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-129.0814409358699</v>
+        <v>-145.6361265395383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09379328476217241</v>
+        <v>0.05674728410997907</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>612.3916061335287</v>
+        <v>609.8844375071862</v>
       </c>
       <c r="C12" t="n">
-        <v>8.167933519086865e-23</v>
+        <v>1.214986650593359e-22</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01603145871785329</v>
+        <v>0.02038899543849209</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6192860412174002</v>
+        <v>0.5262714589200186</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.808707446817847e-05</v>
+        <v>-5.653931150365117e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5361923562879427</v>
+        <v>0.3510079373146817</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.654080409955926</v>
+        <v>-8.276764191800055</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2515195878695601</v>
+        <v>0.2727358907502664</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.8331442744315</v>
+        <v>28.51957605500383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001803226359936902</v>
+        <v>0.0003225647202331027</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-773.6811048726299</v>
+        <v>-585.0136833183298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4789358456931013</v>
+        <v>0.5905830004191159</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-275.890081840791</v>
+        <v>-302.89364495647</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7330963182553552</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>8348.616703360931</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.09049827250104589</v>
+        <v>0.7081588321313952</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ25938017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ26162505" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ26408810" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ26654244" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ26888932" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ27129805" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ27366117" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ27636495" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ27922604" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50366177" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ50635056" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ50949601" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51254478" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51567439" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ51868768" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52167928" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52467876" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52909128" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5882.255850981759</v>
+        <v>5862.674626220989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02699573404792036</v>
+        <v>0.02861712587383618</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7578.756290258945</v>
+        <v>-7592.389631963963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003399487074933047</v>
+        <v>0.003350600157988025</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5203.236966513424</v>
+        <v>-5221.138475583311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03316417678856388</v>
+        <v>0.03255108100047098</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4943.45454671747</v>
+        <v>-4960.698251704407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0428510163213659</v>
+        <v>0.04211973984949453</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733.1748801069305</v>
+        <v>731.6647071385482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0180014461966189</v>
+        <v>0.01843718528758331</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.8079694039326</v>
+        <v>170.2177829774841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4829522561439638</v>
+        <v>0.4923224407417714</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.2770726348054</v>
+        <v>145.2392639201086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05728329305482562</v>
+        <v>0.0595280438969378</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.698137360393</v>
+        <v>-1204.430986741698</v>
       </c>
       <c r="C9" t="n">
-        <v>2.397221849306949e-10</v>
+        <v>2.492294498732943e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.71305618143187</v>
+        <v>-13.98189737269186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09762991401462788</v>
+        <v>0.0909275716599364</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-204.2095285956829</v>
+        <v>-214.2204304772887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00845902511686996</v>
+        <v>0.005580150325916074</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>738.0424451655032</v>
+        <v>742.6928613520042</v>
       </c>
       <c r="C12" t="n">
-        <v>3.30688636679947e-31</v>
+        <v>2.252358899131205e-32</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01479239544641995</v>
+        <v>-0.009972718616985786</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6480410220380568</v>
+        <v>0.7771289642392114</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.00078803902679e-05</v>
+        <v>3.177584359759471e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5092288436736747</v>
+        <v>0.6073065388731516</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.958183180042494</v>
+        <v>-2.499742314731311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6037627537807922</v>
+        <v>0.7233753571392703</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.54918234425368</v>
+        <v>39.32355006100844</v>
       </c>
       <c r="C16" t="n">
-        <v>1.758197637898786e-06</v>
+        <v>7.68348556024907e-07</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.35367527110111</v>
+        <v>-121.4786119709286</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9714581787103265</v>
+        <v>0.9137667790197795</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>442.9334079696063</v>
+        <v>245.6393544529929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5797648325918479</v>
+        <v>0.7674528813301937</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7800.411658939394</v>
+        <v>7774.145958914105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003456107357626221</v>
+        <v>0.003797576609417979</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5181.97848220993</v>
+        <v>-5183.798675133875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0474351626921056</v>
+        <v>0.04738415265913596</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5070.721715588615</v>
+        <v>-5069.017372821479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03855228559501057</v>
+        <v>0.03860509900293906</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4858.640558305692</v>
+        <v>-4854.641553792868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04728343798484979</v>
+        <v>0.04745979821880564</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672.9165817014533</v>
+        <v>676.9361745757039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03021121577897777</v>
+        <v>0.02950105356684703</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-207.6911602875397</v>
+        <v>-202.5002144639008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3988157484243354</v>
+        <v>0.4109926397472607</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55.79541671071011</v>
+        <v>56.94359850506912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4749764131089802</v>
+        <v>0.4664060981999589</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1204.612551286812</v>
+        <v>-1205.602283832311</v>
       </c>
       <c r="C9" t="n">
-        <v>2.536988056767632e-10</v>
+        <v>2.461005733333189e-10</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.12557954939038</v>
+        <v>-22.92785763638061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005455282432881107</v>
+        <v>0.005861919820484071</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-186.3676263131354</v>
+        <v>-179.7041018708159</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01559899137682981</v>
+        <v>0.01933502159181046</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>693.5627702495754</v>
+        <v>692.5000681555298</v>
       </c>
       <c r="C12" t="n">
-        <v>3.225820078053526e-28</v>
+        <v>8.396830918859008e-29</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01252016956250831</v>
+        <v>-0.01462282028005954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7064690208611233</v>
+        <v>0.6861668076072058</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.630428501686624e-05</v>
+        <v>-2.248487352929836e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6687458893426627</v>
+        <v>0.7200435986165641</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.324294888474402</v>
+        <v>-2.029030930406439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8622619102945992</v>
+        <v>0.7752175344264522</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.8731174030618</v>
+        <v>31.49798496338117</v>
       </c>
       <c r="C16" t="n">
-        <v>5.566648252173529e-05</v>
+        <v>5.725302412048273e-05</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-577.6421623680952</v>
+        <v>-362.8973291064696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.597934721287918</v>
+        <v>0.7448826425022621</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-330.7208272523491</v>
+        <v>-225.6828170365629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6783813629271236</v>
+        <v>0.784485763437435</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2963.712374023031</v>
+        <v>2994.826174699515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4160626629250549</v>
+        <v>0.4118335088924476</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1234.818220294421</v>
+        <v>-1228.550355200134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7286557916246319</v>
+        <v>0.7299910835504757</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.0781978128923</v>
+        <v>355.0062950165145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9222482519423497</v>
+        <v>0.9183753868847117</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>626.1984946017769</v>
+        <v>644.838360124332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8564793590792391</v>
+        <v>0.8522696293799643</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.0063698856573</v>
+        <v>914.5722475557119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003202054573655613</v>
+        <v>0.003330357494521526</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.496227349257595</v>
+        <v>-5.234600288352254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9886822902424295</v>
+        <v>0.9830568669929098</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.67124675797533</v>
+        <v>60.08877510307889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4376123797453503</v>
+        <v>0.4423806648002335</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1215.748209383992</v>
+        <v>-1214.389465792229</v>
       </c>
       <c r="C9" t="n">
-        <v>1.862296770957315e-10</v>
+        <v>1.917576146992061e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.07371937052508</v>
+        <v>-13.09488425681438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1207100535836721</v>
+        <v>0.1200283535613868</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-161.0277167984347</v>
+        <v>-171.1053275638577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03707457199005477</v>
+        <v>0.02589622633898609</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>618.5863293503924</v>
+        <v>620.6574947192441</v>
       </c>
       <c r="C12" t="n">
-        <v>1.14249281993725e-22</v>
+        <v>2.543978439808777e-23</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.008017957541642829</v>
+        <v>-0.0002557406917997546</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8038380245305274</v>
+        <v>0.9941061629626913</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.383858909400131e-06</v>
+        <v>-1.853904149536237e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.875997033035508</v>
+        <v>0.9758962321976516</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-12.87282925646605</v>
+        <v>-11.84614259727491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09553846216309859</v>
+        <v>0.1009673775290324</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.62823624396137</v>
+        <v>25.88933230608304</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001498608776601534</v>
+        <v>0.001176340184837169</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-144.8046945259665</v>
+        <v>-258.4836731395678</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8949737483231143</v>
+        <v>0.8170865729831353</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.4384555866965</v>
+        <v>-151.3342304295681</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9012348044234944</v>
+        <v>0.858997936306052</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6835.481788376902</v>
+        <v>6734.681452851824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01098331475031767</v>
+        <v>0.01281196021883442</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6368.565762623355</v>
+        <v>-6352.177435903495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01395447673097833</v>
+        <v>0.01420522499734484</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4847.664427109679</v>
+        <v>-4846.62636990176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04800013987646248</v>
+        <v>0.04801425458485106</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4692.131616220977</v>
+        <v>-4694.58956994322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0554660657200412</v>
+        <v>0.05530723647153471</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618.6043995584591</v>
+        <v>628.3350642793921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04824167888522613</v>
+        <v>0.04511884892677304</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-284.8045585560766</v>
+        <v>-280.1463622206563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.257525616815062</v>
+        <v>0.2658876219591473</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.40032246192953</v>
+        <v>23.1678758199279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7824148655521915</v>
+        <v>0.7653116096694451</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1217.201564536156</v>
+        <v>-1216.805722525712</v>
       </c>
       <c r="C9" t="n">
-        <v>1.965922714329241e-10</v>
+        <v>1.978948016828723e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.4403106415855</v>
+        <v>-17.49234149890659</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0351194520768248</v>
+        <v>0.03457334060823597</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-124.5467444097742</v>
+        <v>-121.5049188392078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1080974037883397</v>
+        <v>0.1147926383310393</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>644.7802999044325</v>
+        <v>646.5161128644689</v>
       </c>
       <c r="C12" t="n">
-        <v>3.215336930345513e-24</v>
+        <v>7.337810278283308e-25</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01541395786095441</v>
+        <v>-0.02211874779433091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6283987658181844</v>
+        <v>0.5178152731521799</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.086251486049409e-06</v>
+        <v>7.344682934185584e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9051032110032475</v>
+        <v>0.9903547660722749</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.684251612722904</v>
+        <v>-4.529065064495835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5378801802163463</v>
+        <v>0.5230900787352685</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.23321152948611</v>
+        <v>40.55671883400646</v>
       </c>
       <c r="C16" t="n">
-        <v>4.086379890236087e-06</v>
+        <v>2.535134621521762e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-320.0548317472847</v>
+        <v>-274.8806663107532</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7706489913052493</v>
+        <v>0.806257999930434</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>332.9006860809268</v>
+        <v>428.1818782750123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6820327217005977</v>
+        <v>0.6107227096918703</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7747.436453693541</v>
+        <v>7807.069168371572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003546985026181389</v>
+        <v>0.003513845555011567</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6644.177513557837</v>
+        <v>-6664.846807132481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009785682834584605</v>
+        <v>0.009569629673476906</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5127.267109266731</v>
+        <v>-5140.185172595151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03587452027989267</v>
+        <v>0.03538762713695059</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4917.864768478377</v>
+        <v>-4928.559607360861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0439880666694238</v>
+        <v>0.04350912770875386</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656.9673506035649</v>
+        <v>658.7122261396273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03336502767859349</v>
+        <v>0.03297581938009514</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-228.9872368023171</v>
+        <v>-229.2846054247331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3563391066267475</v>
+        <v>0.3558190140114028</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107.3901391864808</v>
+        <v>106.5330005878796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1631723103759186</v>
+        <v>0.1671027078542887</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1327.937315309032</v>
+        <v>-1328.783137419704</v>
       </c>
       <c r="C9" t="n">
-        <v>3.507327013593346e-12</v>
+        <v>3.363961393344761e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.40645546053906</v>
+        <v>-14.41250739215877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08138565042130129</v>
+        <v>0.08116739683301487</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-206.0010787426083</v>
+        <v>-211.4586916601949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007776076496713363</v>
+        <v>0.006062425306953594</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>629.083718454795</v>
+        <v>629.9794549062475</v>
       </c>
       <c r="C12" t="n">
-        <v>1.698076594237422e-23</v>
+        <v>3.076220635293385e-24</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0104148694877191</v>
+        <v>-0.005508829026658293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7436285883601623</v>
+        <v>0.8724505926126038</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.504060103838517e-05</v>
+        <v>2.792083634138878e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5594731581616191</v>
+        <v>0.6486611144748624</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.534396408222864</v>
+        <v>-9.029287046680345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2075870183194473</v>
+        <v>0.1976758045372548</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.22154929138991</v>
+        <v>35.23433590267562</v>
       </c>
       <c r="C16" t="n">
-        <v>1.064645657779088e-05</v>
+        <v>8.304621243575363e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1180.860846269361</v>
+        <v>-1220.331393671404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2808492756772589</v>
+        <v>0.2747613200039939</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.58737535744842</v>
+        <v>-61.58175373085044</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9095563383869294</v>
+        <v>0.9420125483555946</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14078.9842535266</v>
+        <v>14178.23778181293</v>
       </c>
       <c r="C2" t="n">
-        <v>8.651080558743778e-05</v>
+        <v>8.575343293569001e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11734.01890572301</v>
+        <v>-11761.35231572518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001055948055653984</v>
+        <v>0.001029413451178146</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10704.28675121154</v>
+        <v>-10724.3842714266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001906793833832155</v>
+        <v>0.001868377306260624</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10313.99137976524</v>
+        <v>-10332.20087764191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002770954192167784</v>
+        <v>0.002721947202856782</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>589.0072879837244</v>
+        <v>590.7017110105368</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05680408993390939</v>
+        <v>0.0562763854445357</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-256.4633382290447</v>
+        <v>-257.2169764734497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3015361645809959</v>
+        <v>0.3002651123915018</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.6023045466813</v>
+        <v>103.333595294597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1727266784781926</v>
+        <v>0.1788708308071816</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1041.511794269309</v>
+        <v>-1043.241749534166</v>
       </c>
       <c r="C9" t="n">
-        <v>3.802164202730456e-08</v>
+        <v>3.613941047564941e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.46728693630927</v>
+        <v>-13.43669201854438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09907624083273085</v>
+        <v>0.09974112019748345</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-266.3747718695569</v>
+        <v>-269.4814730323018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0006701540558997265</v>
+        <v>0.0005564936021450512</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>675.9198101728052</v>
+        <v>674.7781779296045</v>
       </c>
       <c r="C12" t="n">
-        <v>4.213972083831398e-27</v>
+        <v>9.210036881410453e-28</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01003160752049762</v>
+        <v>-0.006477709641515408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7503672089689436</v>
+        <v>0.8492117074513991</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.002693075741934e-05</v>
+        <v>5.178276522400792e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8667889172610572</v>
+        <v>0.9324813121503764</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.29710168513296</v>
+        <v>-10.24725991906296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1705956356671486</v>
+        <v>0.1391629316088112</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.07707371832055</v>
+        <v>24.87018626844636</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002499083320268661</v>
+        <v>0.002408427528499023</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1247.692557337277</v>
+        <v>-1279.215846798972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2530019852605663</v>
+        <v>0.2519906251989944</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-62.38221734626836</v>
+        <v>-167.8412115543138</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9383731039167902</v>
+        <v>0.8422408119974707</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7450.976437806263</v>
+        <v>7352.022150239743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004660005549308273</v>
+        <v>0.005547716249163408</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7029.240552105663</v>
+        <v>-6987.112230940411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005946656927965764</v>
+        <v>0.00625585090848063</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5192.092192167813</v>
+        <v>-5166.889156631547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0319760559890624</v>
+        <v>0.0327934092528914</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4928.396721471495</v>
+        <v>-4907.382849159123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04163404521930436</v>
+        <v>0.04248973246392417</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632.818218419412</v>
+        <v>640.3385349033224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03990809750751752</v>
+        <v>0.03776399982201378</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.310247859816556</v>
+        <v>-0.4674623655328105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9857823941937987</v>
+        <v>0.9984585158910477</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>139.1708373007463</v>
+        <v>140.7913950435295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06624571610804161</v>
+        <v>0.06357975429401751</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-883.0532265418376</v>
+        <v>-883.3960277851502</v>
       </c>
       <c r="C9" t="n">
-        <v>3.100423111908591e-06</v>
+        <v>3.071119437927849e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.69202224748575</v>
+        <v>-10.60568993640134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.190471278295557</v>
+        <v>0.1940334053145694</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-118.8211788570754</v>
+        <v>-105.4790413173655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1217879419302473</v>
+        <v>0.1674437381383878</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>628.5675520415093</v>
+        <v>626.0320614164085</v>
       </c>
       <c r="C12" t="n">
-        <v>1.137597923169417e-24</v>
+        <v>4.676395911047703e-25</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.006808835934052278</v>
+        <v>-0.0179134155190777</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8290055440536241</v>
+        <v>0.5979919277548107</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.809565859874256e-05</v>
+        <v>3.383832719359334e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7584737285546386</v>
+        <v>0.5739679364301449</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.622211331634315</v>
+        <v>-9.901885043776961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2472290725057821</v>
+        <v>0.1535203022159001</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.77223831463045</v>
+        <v>28.4373598520614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003156572478386165</v>
+        <v>0.0003125063732945628</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-659.9540756099069</v>
+        <v>-480.2872311144043</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5408681224103199</v>
+        <v>0.6627206654376182</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-212.5667554507224</v>
+        <v>110.4656987813863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7919692230714064</v>
+        <v>0.8949992490886757</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7363.429294049703</v>
+        <v>7091.458270853562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004981331026041868</v>
+        <v>0.007212044917274333</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7112.49644007711</v>
+        <v>-7095.112535687544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005183567006396109</v>
+        <v>0.005296015524689136</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5201.5935094852</v>
+        <v>-5212.80343577615</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03045992074060573</v>
+        <v>0.03007539141994808</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4999.524670938078</v>
+        <v>-5013.976510175465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03738570363064663</v>
+        <v>0.03680933796648769</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>859.7467420676539</v>
+        <v>877.4095037171422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004983951904226992</v>
+        <v>0.004203333847536133</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.28132529863089</v>
+        <v>-3.628118283564234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9660910930164611</v>
+        <v>0.9880355246941246</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.1696150372811</v>
+        <v>237.1540207288311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002283567676287423</v>
+        <v>0.00211760705645822</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1018.669211023866</v>
+        <v>-1016.344151296257</v>
       </c>
       <c r="C9" t="n">
-        <v>5.598894162097108e-08</v>
+        <v>5.904199823607356e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.1791089713482</v>
+        <v>-17.36294672162078</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0336364133641598</v>
+        <v>0.03170218319742789</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-185.7535472754766</v>
+        <v>-183.6113155273824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01460864854939541</v>
+        <v>0.01534781757131405</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>650.6637951521602</v>
+        <v>658.9328036164075</v>
       </c>
       <c r="C12" t="n">
-        <v>9.973948546068295e-26</v>
+        <v>4.427497801089829e-27</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05188466866680126</v>
+        <v>-0.05888108730327155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09885737940803123</v>
+        <v>0.08227988986465919</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.203406924783756e-05</v>
+        <v>6.899989019318535e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2916535148961216</v>
+        <v>0.2507273436317275</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.69828044625414</v>
+        <v>-9.447666895274436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1503849123027428</v>
+        <v>0.1721164877675427</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.73814828525687</v>
+        <v>31.89400673350505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001841505498479858</v>
+        <v>8.634570591717147e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-287.8513214620746</v>
+        <v>-148.6055479399293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7898880472798862</v>
+        <v>0.8926736531016461</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>650.0895960384412</v>
+        <v>745.8331320609707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4097639269533658</v>
+        <v>0.3614875229740431</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8493.162386396321</v>
+        <v>8384.972732283828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001400434088040132</v>
+        <v>0.001728613790446831</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6420.693040283582</v>
+        <v>-6333.536234049953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01281273257773337</v>
+        <v>0.01410076700143101</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5092.078364036319</v>
+        <v>-5041.284148106446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03720595177267782</v>
+        <v>0.03913431299530846</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4852.145584576079</v>
+        <v>-4810.842776107423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04695467518221597</v>
+        <v>0.04886233598490263</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935.024508246638</v>
+        <v>949.1944108410285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002750606925800769</v>
+        <v>0.002389394188845855</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-57.71798923184096</v>
+        <v>-51.62585564333659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8154185505733035</v>
+        <v>0.8346913316924254</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.68120721279186</v>
+        <v>64.34547868229173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4345148666906828</v>
+        <v>0.4082498440858542</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1089.342930723517</v>
+        <v>-1092.176640630453</v>
       </c>
       <c r="C9" t="n">
-        <v>1.054763071525024e-08</v>
+        <v>9.687285619644723e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.96076033917458</v>
+        <v>-20.80383345547429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01115185157905127</v>
+        <v>0.01176932105753262</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-145.6361265395383</v>
+        <v>-121.0200137326557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05674728410997907</v>
+        <v>0.1120207264131516</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>609.8844375071862</v>
+        <v>601.6566007798366</v>
       </c>
       <c r="C12" t="n">
-        <v>1.214986650593359e-22</v>
+        <v>1.379286848615442e-22</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02038899543849209</v>
+        <v>-0.002110754400696019</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5262714589200186</v>
+        <v>0.951357871414138</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.653931150365117e-05</v>
+        <v>-2.491292988560018e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3510079373146817</v>
+        <v>0.6879001922523009</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.276764191800055</v>
+        <v>-10.97206046566593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2727358907502664</v>
+        <v>0.121405617439873</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.51957605500383</v>
+        <v>27.68547209063765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003225647202331027</v>
+        <v>0.0004202456997900686</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-585.0136833183298</v>
+        <v>-376.2656167334814</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5905830004191159</v>
+        <v>0.7339940275794881</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-302.89364495647</v>
+        <v>286.9993619345659</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7081588321313952</v>
+        <v>0.7316911829561099</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50366177" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50635056" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ50949601" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51254478" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51567439" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51868768" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52167928" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52467876" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52909128" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ51831891" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ52238586" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ52543511" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ52838791" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ53132805" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ53431877" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ53716167" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ54033432" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ54331769" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51831891" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ52238586" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ52543511" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ52838791" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ53132805" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ53431877" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ53716167" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ54033432" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ54331769" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50321644" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ50670201" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ50980211" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51312190" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ51635287" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ51968496" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52286894" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52633368" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ52964884" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5862.674626220989</v>
+        <v>5652.303620525336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02861712587383618</v>
+        <v>0.03042217590277518</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7592.389631963963</v>
+        <v>-7600.672566131304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003350600157988025</v>
+        <v>0.003309921884397253</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5221.138475583311</v>
+        <v>-5229.025123831276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03255108100047098</v>
+        <v>0.0322548483143821</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4960.698251704407</v>
+        <v>-4968.947368559023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04211973984949453</v>
+        <v>0.04173693787077037</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>731.6647071385482</v>
+        <v>738.7631457468361</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01843718528758331</v>
+        <v>0.01708260886816338</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.2177829774841</v>
+        <v>172.9740384855479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4923224407417714</v>
+        <v>0.4850559138454997</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145.2392639201086</v>
+        <v>146.5003476536721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0595280438969378</v>
+        <v>0.05704526265518111</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1204.430986741698</v>
+        <v>-1205.847560592602</v>
       </c>
       <c r="C9" t="n">
-        <v>2.492294498732943e-10</v>
+        <v>2.338690264150416e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.98189737269186</v>
+        <v>-14.08182648203113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0909275716599364</v>
+        <v>0.08840563792602732</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-214.2204304772887</v>
+        <v>-220.6448860192464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005580150325916074</v>
+        <v>0.00331344480319383</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>742.6928613520042</v>
+        <v>753.9307019126259</v>
       </c>
       <c r="C12" t="n">
-        <v>2.252358899131205e-32</v>
+        <v>3.537461290071724e-44</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009972718616985786</v>
+        <v>-0.00769606105066011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7771289642392114</v>
+        <v>0.8241480414415189</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.177584359759471e-05</v>
+        <v>2.166517146447214e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6073065388731516</v>
+        <v>0.6927255313366254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.499742314731311</v>
+        <v>40.2776715090891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7233753571392703</v>
+        <v>7.376049586623852e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.32355006100844</v>
+        <v>-106.232139556865</v>
       </c>
       <c r="C16" t="n">
-        <v>7.68348556024907e-07</v>
+        <v>0.9244873733055904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-121.4786119709286</v>
+        <v>139.0964396781474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9137667790197795</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>245.6393544529929</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7674528813301937</v>
+        <v>0.857396933188985</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7774.145958914105</v>
+        <v>7604.18825213171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003797576609417979</v>
+        <v>0.003684237097317235</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5183.798675133875</v>
+        <v>-5194.476147443218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04738415265913596</v>
+        <v>0.04687014606603928</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5069.017372821479</v>
+        <v>-5074.968665012259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03860509900293906</v>
+        <v>0.03833786946007416</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4854.641553792868</v>
+        <v>-4860.367705553405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04745979821880564</v>
+        <v>0.04715414626202021</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676.9361745757039</v>
+        <v>681.757991895362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02950105356684703</v>
+        <v>0.0281042985423333</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-202.5002144639008</v>
+        <v>-199.7664440380723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4109926397472607</v>
+        <v>0.4169056722295075</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.94359850506912</v>
+        <v>57.99084217181315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4664060981999589</v>
+        <v>0.4576780467541604</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.602283832311</v>
+        <v>-1206.505356476684</v>
       </c>
       <c r="C9" t="n">
-        <v>2.461005733333189e-10</v>
+        <v>2.357089420913067e-10</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.92785763638061</v>
+        <v>-22.9362524617885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005861919820484071</v>
+        <v>0.005835240114071766</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-179.7041018708159</v>
+        <v>-184.5413932961546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01933502159181046</v>
+        <v>0.0137810975955768</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>692.5000681555298</v>
+        <v>701.4390844602578</v>
       </c>
       <c r="C12" t="n">
-        <v>8.396830918859008e-29</v>
+        <v>6.213195126722601e-39</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01462282028005954</v>
+        <v>-0.01292845350443651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6861668076072058</v>
+        <v>0.7171977508036667</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.248487352929836e-05</v>
+        <v>-3.072412221596991e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7200435986165641</v>
+        <v>0.5812185487125425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.029030930406439</v>
+        <v>32.21142621235253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7752175344264522</v>
+        <v>1.40865991239152e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.49798496338117</v>
+        <v>-350.2034420213173</v>
       </c>
       <c r="C16" t="n">
-        <v>5.725302412048273e-05</v>
+        <v>0.7532814253727166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-362.8973291064696</v>
+        <v>-310.9384986764407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7448826425022621</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-225.6828170365629</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.784485763437435</v>
+        <v>0.686041671859719</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2994.826174699515</v>
+        <v>1922.489067564673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4118335088924476</v>
+        <v>0.59242041767646</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1228.550355200134</v>
+        <v>-1212.322354564906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7299910835504757</v>
+        <v>0.7334998966021027</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.0062950165145</v>
+        <v>387.65215134198</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9183753868847117</v>
+        <v>0.9109255058979521</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>644.838360124332</v>
+        <v>676.5022597073144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8522696293799643</v>
+        <v>0.845150592696159</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>914.5722475557119</v>
+        <v>951.1266915065493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003330357494521526</v>
+        <v>0.002217144240431206</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.234600288352254</v>
+        <v>12.66158040130452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9830568669929098</v>
+        <v>0.9590051184965347</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.08877510307889</v>
+        <v>68.96230774462987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4423806648002335</v>
+        <v>0.3769967688836433</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1214.389465792229</v>
+        <v>-1214.747283357668</v>
       </c>
       <c r="C9" t="n">
-        <v>1.917576146992061e-10</v>
+        <v>1.918793273178035e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.09488425681438</v>
+        <v>-13.21677385992876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1200283535613868</v>
+        <v>0.1167199861454876</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-171.1053275638577</v>
+        <v>-202.7954368277342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02589622633898609</v>
+        <v>0.006397898850196876</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>620.6574947192441</v>
+        <v>673.7395650795902</v>
       </c>
       <c r="C12" t="n">
-        <v>2.543978439808777e-23</v>
+        <v>2.086929028211431e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002557406917997546</v>
+        <v>0.01283116405183682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9941061629626913</v>
+        <v>0.703393809027328</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.853904149536237e-06</v>
+        <v>-5.091119259521088e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9758962321976516</v>
+        <v>0.342200715070594</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.84614259727491</v>
+        <v>30.25684835972437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1009673775290324</v>
+        <v>5.831504347469653e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.88933230608304</v>
+        <v>-221.0929040639173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001176340184837169</v>
+        <v>0.843189160979851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-258.4836731395678</v>
+        <v>-690.1829965065527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8170865729831353</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-151.3342304295681</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.858997936306052</v>
+        <v>0.380074590687099</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6734.681452851824</v>
+        <v>6332.843617123981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01281196021883442</v>
+        <v>0.01609081096558548</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6352.177435903495</v>
+        <v>-6383.522083840246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01420522499734484</v>
+        <v>0.01370785157042828</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4846.62636990176</v>
+        <v>-4863.618422830211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04801425458485106</v>
+        <v>0.0471997685999127</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4694.58956994322</v>
+        <v>-4710.805570456975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05530723647153471</v>
+        <v>0.05443188421476818</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628.3350642793921</v>
+        <v>643.1400190599795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04511884892677304</v>
+        <v>0.03972786519470433</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-280.1463622206563</v>
+        <v>-275.7577120930276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2658876219591473</v>
+        <v>0.2732164806975581</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.1678758199279</v>
+        <v>25.07571932274031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7653116096694451</v>
+        <v>0.7464152538629558</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1216.805722525712</v>
+        <v>-1220.005559204216</v>
       </c>
       <c r="C9" t="n">
-        <v>1.978948016828723e-10</v>
+        <v>1.742591858671818e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.49234149890659</v>
+        <v>-17.52776792139825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03457334060823597</v>
+        <v>0.03418555657613333</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-121.5049188392078</v>
+        <v>-133.3648864617182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1147926383310393</v>
+        <v>0.07448289957496912</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>646.5161128644689</v>
+        <v>667.1744804409084</v>
       </c>
       <c r="C12" t="n">
-        <v>7.337810278283308e-25</v>
+        <v>3.035372277207062e-35</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02211874779433091</v>
+        <v>-0.01746235230185631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5178152731521799</v>
+        <v>0.6012178081772698</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.344682934185584e-07</v>
+        <v>-1.737640840733717e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9903547660722749</v>
+        <v>0.7463710953723556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.529065064495835</v>
+        <v>42.48711268639059</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5230900787352685</v>
+        <v>1.417840372252814e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.55671883400646</v>
+        <v>-253.2165496706338</v>
       </c>
       <c r="C16" t="n">
-        <v>2.535134621521762e-06</v>
+        <v>0.8211583313835239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-274.8806663107532</v>
+        <v>227.1259975123002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.806257999930434</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>428.1818782750123</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6107227096918703</v>
+        <v>0.7708826490756931</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7807.069168371572</v>
+        <v>7064.079744498708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003513845555011567</v>
+        <v>0.006836556471334359</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6664.846807132481</v>
+        <v>-6727.104780401817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009569629673476906</v>
+        <v>0.008914358552546194</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5140.185172595151</v>
+        <v>-5176.876113192819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03538762713695059</v>
+        <v>0.03410850875844522</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4928.559607360861</v>
+        <v>-4965.500771443999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04350912770875386</v>
+        <v>0.04197153062828855</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658.7122261396273</v>
+        <v>690.232058703406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03297581938009514</v>
+        <v>0.02502034037627375</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-229.2846054247331</v>
+        <v>-214.2672493169738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3558190140114028</v>
+        <v>0.3877308160886863</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5330005878796</v>
+        <v>112.762264831895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1671027078542887</v>
+        <v>0.1429123614572206</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1328.783137419704</v>
+        <v>-1333.636653025481</v>
       </c>
       <c r="C9" t="n">
-        <v>3.363961393344761e-12</v>
+        <v>2.801388090448113e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.41250739215877</v>
+        <v>-14.43493055203026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08116739683301487</v>
+        <v>0.08073181782740196</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-211.4586916601949</v>
+        <v>-236.9892565734906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006062425306953594</v>
+        <v>0.001463663962568136</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>629.9794549062475</v>
+        <v>671.4393926667115</v>
       </c>
       <c r="C12" t="n">
-        <v>3.076220635293385e-24</v>
+        <v>1.262533748401533e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.005508829026658293</v>
+        <v>0.004486430986539722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8724505926126038</v>
+        <v>0.8932367725738457</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.792083634138878e-05</v>
+        <v>-9.879092453117466e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6486611144748624</v>
+        <v>0.8543238116126564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.029287046680345</v>
+        <v>38.46551978463526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1976758045372548</v>
+        <v>2.922611502324599e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35.23433590267562</v>
+        <v>-1171.418558748866</v>
       </c>
       <c r="C16" t="n">
-        <v>8.304621243575363e-06</v>
+        <v>0.2942357683462163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1220.331393671404</v>
+        <v>-488.5829672569703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2747613200039939</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-61.58175373085044</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9420125483555946</v>
+        <v>0.530611778045196</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14178.23778181293</v>
+        <v>13408.33196887199</v>
       </c>
       <c r="C2" t="n">
-        <v>8.575343293569001e-05</v>
+        <v>0.0001744366902893321</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11761.35231572518</v>
+        <v>-11903.107163791</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001029413451178146</v>
+        <v>0.0008927671408816169</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10724.3842714266</v>
+        <v>-10830.93322716242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001868377306260624</v>
+        <v>0.001682340145297726</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10332.20087764191</v>
+        <v>-10436.94980538652</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002721947202856782</v>
+        <v>0.002463201584180235</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590.7017110105368</v>
+        <v>628.7295296377118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0562763854445357</v>
+        <v>0.04152108173282389</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-257.2169764734497</v>
+        <v>-234.5240344333048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3002651123915018</v>
+        <v>0.3441015612800737</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.333595294597</v>
+        <v>108.4253490509896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1788708308071816</v>
+        <v>0.158079452837694</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1043.241749534166</v>
+        <v>-1051.240378120819</v>
       </c>
       <c r="C9" t="n">
-        <v>3.613941047564941e-08</v>
+        <v>2.827339642855313e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.43669201854438</v>
+        <v>-13.71237114222625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09974112019748345</v>
+        <v>0.09296982570312569</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-269.4814730323018</v>
+        <v>-296.4815461674837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005564936021450512</v>
+        <v>9.449513817367213e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>674.7781779296045</v>
+        <v>720.9273239167421</v>
       </c>
       <c r="C12" t="n">
-        <v>9.210036881410453e-28</v>
+        <v>1.870049916506558e-41</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.006477709641515408</v>
+        <v>0.004921416879409946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8492117074513991</v>
+        <v>0.8821400404606269</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.178276522400792e-06</v>
+        <v>-3.81663801103305e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9324813121503764</v>
+        <v>0.4768542046055695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.24725991906296</v>
+        <v>28.56125819577923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1391629316088112</v>
+        <v>0.0002553695711249647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.87018626844636</v>
+        <v>-1222.915945899437</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002408427528499023</v>
+        <v>0.27328906777262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1279.215846798972</v>
+        <v>-647.1098129674667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2519906251989944</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-167.8412115543138</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8422408119974707</v>
+        <v>0.4060239557101415</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7352.022150239743</v>
+        <v>6526.57455266726</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005547716249163408</v>
+        <v>0.01164686260243393</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6987.112230940411</v>
+        <v>-7050.908023618711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00625585090848063</v>
+        <v>0.005799906157223467</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5166.889156631547</v>
+        <v>-5203.871181532675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0327934092528914</v>
+        <v>0.03158835451810723</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4907.382849159123</v>
+        <v>-4945.62684603464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04248973246392417</v>
+        <v>0.04093144837684316</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640.3385349033224</v>
+        <v>668.202173428494</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03776399982201378</v>
+        <v>0.02988051144267604</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4674623655328105</v>
+        <v>12.27148603426642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9984585158910477</v>
+        <v>0.9595316186524694</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>140.7913950435295</v>
+        <v>145.5973081011326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06357975429401751</v>
+        <v>0.05486792703778008</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-883.3960277851502</v>
+        <v>-893.4749189356189</v>
       </c>
       <c r="C9" t="n">
-        <v>3.071119437927849e-06</v>
+        <v>2.342131258627897e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.60568993640134</v>
+        <v>-10.60147515542326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1940334053145694</v>
+        <v>0.1942959043143207</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-105.4790413173655</v>
+        <v>-131.3961889855502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1674437381383878</v>
+        <v>0.07675357287506884</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>626.0320614164085</v>
+        <v>670.105537069069</v>
       </c>
       <c r="C12" t="n">
-        <v>4.676395911047703e-25</v>
+        <v>9.88263994450572e-38</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0179134155190777</v>
+        <v>-0.007190242460858025</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5979919277548107</v>
+        <v>0.8282210290261971</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.383832719359334e-05</v>
+        <v>-7.102530160961307e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5739679364301449</v>
+        <v>0.8932396589699093</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.901885043776961</v>
+        <v>32.12347838393102</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1535203022159001</v>
+        <v>1.655275462654475e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.4373598520614</v>
+        <v>-432.5402206756693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003125063732945628</v>
+        <v>0.6943880066684125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-480.2872311144043</v>
+        <v>-345.4883671818617</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6627206654376182</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>110.4656987813863</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8949992490886757</v>
+        <v>0.655247354885901</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7091.458270853562</v>
+        <v>6287.353691782285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007212044917274333</v>
+        <v>0.01453388386900268</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7095.112535687544</v>
+        <v>-7155.588037427314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005296015524689136</v>
+        <v>0.00492090439598372</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5212.80343577615</v>
+        <v>-5249.024379975544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03007539141994808</v>
+        <v>0.02896666204129973</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5013.976510175465</v>
+        <v>-5049.826149577464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03680933796648769</v>
+        <v>0.03550256388024486</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.4095037171422</v>
+        <v>908.2736905123069</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004203333847536133</v>
+        <v>0.002971891627050326</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.628118283564234</v>
+        <v>9.966974197428371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9880355246941246</v>
+        <v>0.9671173036330404</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>237.1540207288311</v>
+        <v>240.7879053654324</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00211760705645822</v>
+        <v>0.00179877625478965</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1016.344151296257</v>
+        <v>-1022.294778028888</v>
       </c>
       <c r="C9" t="n">
-        <v>5.904199823607356e-08</v>
+        <v>4.92872614398037e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.36294672162078</v>
+        <v>-17.60932465970924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03170218319742789</v>
+        <v>0.02934675382824587</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-183.6113155273824</v>
+        <v>-209.2766618831573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01534781757131405</v>
+        <v>0.00435629814641919</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>658.9328036164075</v>
+        <v>702.3515077573885</v>
       </c>
       <c r="C12" t="n">
-        <v>4.427497801089829e-27</v>
+        <v>4.604691679051116e-41</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05888108730327155</v>
+        <v>-0.0493024041428648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08227988986465919</v>
+        <v>0.1370058344373888</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.899989019318535e-05</v>
+        <v>3.076274608597654e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2507273436317275</v>
+        <v>0.562744503087526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.447666895274436</v>
+        <v>35.60750258362116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1721164877675427</v>
+        <v>3.336448677251594e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.89400673350505</v>
+        <v>-78.16351327469843</v>
       </c>
       <c r="C16" t="n">
-        <v>8.634570591717147e-05</v>
+        <v>0.9433715934367199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-148.6055479399293</v>
+        <v>323.7111414595508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8926736531016461</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>745.8331320609707</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3614875229740431</v>
+        <v>0.6687955803348997</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8384.972732283828</v>
+        <v>7480.29730371484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001728613790446831</v>
+        <v>0.004182389589130963</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6333.536234049953</v>
+        <v>-6395.566539572774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01410076700143101</v>
+        <v>0.01319880009728703</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5041.284148106446</v>
+        <v>-5083.843869001941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03913431299530846</v>
+        <v>0.03754686815703284</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4810.842776107423</v>
+        <v>-4854.361735723767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04886233598490263</v>
+        <v>0.04689849994674686</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949.1944108410285</v>
+        <v>987.3419092943825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002389394188845855</v>
+        <v>0.001535574760158829</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-51.62585564333659</v>
+        <v>-31.68413861068272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8346913316924254</v>
+        <v>0.8979759797143956</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.34547868229173</v>
+        <v>69.03416650931452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4082498440858542</v>
+        <v>0.3747175309061674</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1092.176640630453</v>
+        <v>-1093.021213286565</v>
       </c>
       <c r="C9" t="n">
-        <v>9.687285619644723e-09</v>
+        <v>9.51918476627066e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.80383345547429</v>
+        <v>-21.34188284245504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01176932105753262</v>
+        <v>0.009718795212393577</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-121.0200137326557</v>
+        <v>-150.3316643288665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1120207264131516</v>
+        <v>0.04163177585763753</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>601.6566007798366</v>
+        <v>651.005229640988</v>
       </c>
       <c r="C12" t="n">
-        <v>1.379286848615442e-22</v>
+        <v>5.461460404592019e-35</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.002110754400696019</v>
+        <v>0.009374560417334541</v>
       </c>
       <c r="C13" t="n">
-        <v>0.951357871414138</v>
+        <v>0.7815526387589953</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.491292988560018e-05</v>
+        <v>-7.015426947106088e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6879001922523009</v>
+        <v>0.1999342639234475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-10.97206046566593</v>
+        <v>31.77978931473699</v>
       </c>
       <c r="C15" t="n">
-        <v>0.121405617439873</v>
+        <v>1.732909965184017e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.68547209063765</v>
+        <v>-310.3107433969549</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004202456997900686</v>
+        <v>0.7791802986231999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-376.2656167334814</v>
+        <v>-203.5307737692718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7339940275794881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>286.9993619345659</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7316911829561099</v>
+        <v>0.792851814759831</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Montpellier.xlsx
+++ b/outputs/ML_Results/dist_commute/Montpellier.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ50321644" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ50670201" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ50980211" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51312190" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ51635287" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ51968496" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52286894" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52633368" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ52964884" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ17953667" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ18155488" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ18378770" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ18603459" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ18847123" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ19071229" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ19292976" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19513711" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19736827" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5652.303620525336</v>
+        <v>5652.303618869259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03042217590277518</v>
+        <v>0.03042217592006857</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7600.672566131304</v>
+        <v>-7600.672564401334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003309921884397253</v>
+        <v>0.00330992188440316</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5229.025123831276</v>
+        <v>-5229.025121425551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0322548483143821</v>
+        <v>0.03225484833923492</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4968.947368559023</v>
+        <v>-4968.947366215692</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04173693787077037</v>
+        <v>0.04173693790422651</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>738.7631457468361</v>
+        <v>738.7631453310647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01708260886816338</v>
+        <v>0.01708260892819552</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9740384855479</v>
+        <v>172.9740379971134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4850559138454997</v>
+        <v>0.485055915064736</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.5003476536721</v>
+        <v>146.5003473447088</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05704526265518111</v>
+        <v>0.05704526316908213</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1205.847560592602</v>
+        <v>-1205.847560217595</v>
       </c>
       <c r="C9" t="n">
-        <v>2.338690264150416e-10</v>
+        <v>2.33869029235674e-10</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.08182648203113</v>
+        <v>-14.0818265336284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08840563792602732</v>
+        <v>0.08840563673607224</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-220.6448860192464</v>
+        <v>-220.64488666805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00331344480319383</v>
+        <v>0.003313444714535568</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>753.9307019126259</v>
+        <v>753.9307021626965</v>
       </c>
       <c r="C12" t="n">
-        <v>3.537461290071724e-44</v>
+        <v>3.537461110411979e-44</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00769606105066011</v>
+        <v>-0.7696060696912341</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8241480414415189</v>
+        <v>0.8241480494234377</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.166517146447214e-05</v>
+        <v>21.66517050495972</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6927255313366254</v>
+        <v>0.6927255444040082</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.2776715090891</v>
+        <v>40.27767150908681</v>
       </c>
       <c r="C15" t="n">
-        <v>7.376049586623852e-08</v>
+        <v>7.376049586634996e-08</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-106.232139556865</v>
+        <v>-1.062321395567414</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9244873733055904</v>
+        <v>0.924487373305678</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>139.0964396781474</v>
+        <v>1.390964396780248</v>
       </c>
       <c r="C17" t="n">
-        <v>0.857396933188985</v>
+        <v>0.8573969331891098</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7604.18825213171</v>
+        <v>7604.188257908892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003684237097317235</v>
+        <v>0.003684237104320311</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5194.476147443218</v>
+        <v>-5194.476147494298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04687014606603928</v>
+        <v>0.0468701460660332</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5074.968665012259</v>
+        <v>-5074.968665427035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03833786946007416</v>
+        <v>0.0383378694596724</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4860.367705553405</v>
+        <v>-4860.367706565103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04715414626202021</v>
+        <v>0.04715414625898745</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>681.757991895362</v>
+        <v>681.7579925578389</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0281042985423333</v>
+        <v>0.02810429839600282</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-199.7664440380723</v>
+        <v>-199.7664438642098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4169056722295075</v>
+        <v>0.4169056726424508</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.99084217181315</v>
+        <v>57.99084180415853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4576780467541604</v>
+        <v>0.4576780495739783</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1206.505356476684</v>
+        <v>-1206.505356482876</v>
       </c>
       <c r="C9" t="n">
-        <v>2.357089420913067e-10</v>
+        <v>2.357089420451537e-10</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.9362524617885</v>
+        <v>-22.93625246196884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005835240114071766</v>
+        <v>0.00583524011367386</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-184.5413932961546</v>
+        <v>-184.5413932245881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0137810975955768</v>
+        <v>0.01378109763112617</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>701.4390844602578</v>
+        <v>701.4390843696756</v>
       </c>
       <c r="C12" t="n">
-        <v>6.213195126722601e-39</v>
+        <v>6.213195240143233e-39</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01292845350443651</v>
+        <v>-1.292845381683849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7171977508036667</v>
+        <v>0.7171977442240626</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.072412221596991e-05</v>
+        <v>-30.72412124005107</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5812185487125425</v>
+        <v>0.5812185609137986</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.21142621235253</v>
+        <v>32.21142621234959</v>
       </c>
       <c r="C15" t="n">
-        <v>1.40865991239152e-05</v>
+        <v>1.408659912394068e-05</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-350.2034420213173</v>
+        <v>-3.502034420215362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7532814253727166</v>
+        <v>0.7532814253725663</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-310.9384986764407</v>
+        <v>-3.109384986765887</v>
       </c>
       <c r="C17" t="n">
-        <v>0.686041671859719</v>
+        <v>0.6860416718595772</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1922.489067564673</v>
+        <v>1922.489068085888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59242041767646</v>
+        <v>0.5924204177236576</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1212.322354564906</v>
+        <v>-1212.322353940063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7334998966021027</v>
+        <v>0.7334998966012076</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>387.65215134198</v>
+        <v>387.6521517341143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9109255058979521</v>
+        <v>0.9109255057795402</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>676.5022597073144</v>
+        <v>676.502260067414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.845150592696159</v>
+        <v>0.8451505925693679</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>951.1266915065493</v>
+        <v>951.1266914423096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002217144240431206</v>
+        <v>0.00221714424182918</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.66158040130452</v>
+        <v>12.6615803542914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9590051184965347</v>
+        <v>0.9590051186486642</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.96230774462987</v>
+        <v>68.96230772579466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3769967688836433</v>
+        <v>0.3769967690095739</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1214.747283357668</v>
+        <v>-1214.747283359071</v>
       </c>
       <c r="C9" t="n">
-        <v>1.918793273178035e-10</v>
+        <v>1.918793273154912e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.21677385992876</v>
+        <v>-13.21677386767266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1167199861454876</v>
+        <v>0.1167199859433442</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-202.7954368277342</v>
+        <v>-202.7954367631188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006397898850196876</v>
+        <v>0.006397898866429529</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.7395650795902</v>
+        <v>673.7395649792202</v>
       </c>
       <c r="C12" t="n">
-        <v>2.086929028211431e-36</v>
+        <v>2.08692899545658e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01283116405183682</v>
+        <v>1.283116406315373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.703393809027328</v>
+        <v>0.7033938087835254</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.091119259521088e-05</v>
+        <v>-50.91119279890842</v>
       </c>
       <c r="C14" t="n">
-        <v>0.342200715070594</v>
+        <v>0.342200713082693</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.25684835972437</v>
+        <v>30.2568483597239</v>
       </c>
       <c r="C15" t="n">
-        <v>5.831504347469653e-05</v>
+        <v>5.831504347471721e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-221.0929040639173</v>
+        <v>-2.210929040640571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.843189160979851</v>
+        <v>0.8431891609797527</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-690.1829965065527</v>
+        <v>-6.901829965065897</v>
       </c>
       <c r="C17" t="n">
-        <v>0.380074590687099</v>
+        <v>0.3800745906870739</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6332.843617123981</v>
+        <v>6332.843623780454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01609081096558548</v>
+        <v>0.01609081094927661</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6383.522083840246</v>
+        <v>-6383.522081431453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01370785157042828</v>
+        <v>0.0137078515704434</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-4863.618422830211</v>
+        <v>-4863.618421314791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0471997685999127</v>
+        <v>0.04719976861640705</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4710.805570456975</v>
+        <v>-4710.80556898599</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05443188421476818</v>
+        <v>0.05443188423460782</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643.1400190599795</v>
+        <v>643.1400189828203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03972786519470433</v>
+        <v>0.0397278652176189</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-275.7577120930276</v>
+        <v>-275.7577120248288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2732164806975581</v>
+        <v>0.2732164808186545</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.07571932274031</v>
+        <v>25.07571936732504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7464152538629558</v>
+        <v>0.7464152534293547</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1220.005559204216</v>
+        <v>-1220.005559402298</v>
       </c>
       <c r="C9" t="n">
-        <v>1.742591858671818e-10</v>
+        <v>1.742591847709325e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.52776792139825</v>
+        <v>-17.5277679143352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03418555657613333</v>
+        <v>0.03418555665001466</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-133.3648864617182</v>
+        <v>-133.3648858454279</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07448289957496912</v>
+        <v>0.07448290088365039</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.1744804409084</v>
+        <v>667.1744797320882</v>
       </c>
       <c r="C12" t="n">
-        <v>3.035372277207062e-35</v>
+        <v>3.035372678564236e-35</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01746235230185631</v>
+        <v>-1.746235231149456</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6012178081772698</v>
+        <v>0.6012178079749129</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.737640840733717e-05</v>
+        <v>-17.37641052707724</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7463710953723556</v>
+        <v>0.7463710655076879</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.48711268639059</v>
+        <v>42.48711268639266</v>
       </c>
       <c r="C15" t="n">
-        <v>1.417840372252814e-07</v>
+        <v>1.417840372250483e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-253.2165496706338</v>
+        <v>-2.532165496705622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8211583313835239</v>
+        <v>0.821158331383573</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>227.1259975123002</v>
+        <v>2.271259975124581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7708826490756931</v>
+        <v>0.7708826490755374</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7064.079744498708</v>
+        <v>7064.079749750526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006836556471334359</v>
+        <v>0.00683655646765205</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6727.104780401817</v>
+        <v>-6727.104778167108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008914358552546194</v>
+        <v>0.008914358552544717</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5176.876113192819</v>
+        <v>-5176.876111303107</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03410850875844522</v>
+        <v>0.03410850877359613</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4965.500771443999</v>
+        <v>-4965.500769499626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04197153062828855</v>
+        <v>0.04197153064938822</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>690.232058703406</v>
+        <v>690.23205827913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02502034037627375</v>
+        <v>0.02502034046206509</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-214.2672493169738</v>
+        <v>-214.2672497890062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3877308160886863</v>
+        <v>0.387730815027444</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.762264831895</v>
+        <v>112.7622646896897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1429123614572206</v>
+        <v>0.1429123619521861</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1333.636653025481</v>
+        <v>-1333.636652966514</v>
       </c>
       <c r="C9" t="n">
-        <v>2.801388090448113e-12</v>
+        <v>2.80138809619285e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.43493055203026</v>
+        <v>-14.43493058250511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08073181782740196</v>
+        <v>0.08073181717521048</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-236.9892565734906</v>
+        <v>-236.9892566854652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001463663962568136</v>
+        <v>0.001463663955297723</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>671.4393926667115</v>
+        <v>671.4393927178705</v>
       </c>
       <c r="C12" t="n">
-        <v>1.262533748401533e-36</v>
+        <v>1.262533735805555e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004486430986539722</v>
+        <v>0.4486431009912744</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8932367725738457</v>
+        <v>0.8932367720222353</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.879092453117466e-06</v>
+        <v>-9.879092212182552</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8543238116126564</v>
+        <v>0.8543238150376434</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.46551978463526</v>
+        <v>38.46551978463501</v>
       </c>
       <c r="C15" t="n">
-        <v>2.922611502324599e-07</v>
+        <v>2.922611502324797e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1171.418558748866</v>
+        <v>-11.71418558749029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2942357683462163</v>
+        <v>0.2942357683461461</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-488.5829672569703</v>
+        <v>-4.885829672570133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.530611778045196</v>
+        <v>0.530611778045158</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13408.33196887199</v>
+        <v>13408.33198249268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001744366902893321</v>
+        <v>0.0001744366904014452</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11903.107163791</v>
+        <v>-11903.1071674716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008927671408816169</v>
+        <v>0.0008927671408814486</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10830.93322716242</v>
+        <v>-10830.93322576725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001682340145297726</v>
+        <v>0.001682340145507427</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-10436.94980538652</v>
+        <v>-10436.94980375742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002463201584180235</v>
+        <v>0.002463201584655</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628.7295296377118</v>
+        <v>628.7295292555104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04152108173282389</v>
+        <v>0.04152108185259257</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-234.5240344333048</v>
+        <v>-234.5240353140717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3441015612800737</v>
+        <v>0.3441015594354864</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.4253490509896</v>
+        <v>108.4253480346507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158079452837694</v>
+        <v>0.1580794566760338</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1051.240378120819</v>
+        <v>-1051.240377681382</v>
       </c>
       <c r="C9" t="n">
-        <v>2.827339642855313e-08</v>
+        <v>2.827339680476739e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.71237114222625</v>
+        <v>-13.71237109466291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09296982570312569</v>
+        <v>0.09296982686417027</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-296.4815461674837</v>
+        <v>-296.4815497692466</v>
       </c>
       <c r="C11" t="n">
-        <v>9.449513817367213e-05</v>
+        <v>9.44951206872289e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9273239167421</v>
+        <v>720.9273264169584</v>
       </c>
       <c r="C12" t="n">
-        <v>1.870049916506558e-41</v>
+        <v>1.870048786536346e-41</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004921416879409946</v>
+        <v>0.492141761393984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8821400404606269</v>
+        <v>0.8821400230397852</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.81663801103305e-05</v>
+        <v>-38.16638223956404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4768542046055695</v>
+        <v>0.4768541803419678</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.56125819577923</v>
+        <v>28.56125819578228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002553695711249647</v>
+        <v>0.0002553695711245696</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1222.915945899437</v>
+        <v>-12.22915945899361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27328906777262</v>
+        <v>0.2732890677726484</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-647.1098129674667</v>
+        <v>-6.471098129674306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4060239557101415</v>
+        <v>0.4060239557101665</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6526.57455266726</v>
+        <v>6526.574557175823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01164686260243393</v>
+        <v>0.01164686259101119</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7050.908023618711</v>
+        <v>-7050.908024572099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005799906157223467</v>
+        <v>0.005799906157238237</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5203.871181532675</v>
+        <v>-5203.871181683574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03158835451810723</v>
+        <v>0.03158835451681819</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4945.62684603464</v>
+        <v>-4945.626846169414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04093144837684316</v>
+        <v>0.04093144837519762</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>668.202173428494</v>
+        <v>668.2021731035697</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02988051144267604</v>
+        <v>0.02988051151964441</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.27148603426642</v>
+        <v>12.27148593862316</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9595316186524694</v>
+        <v>0.9595316189673547</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145.5973081011326</v>
+        <v>145.5973078707086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05486792703778008</v>
+        <v>0.05486792741255863</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-893.4749189356189</v>
+        <v>-893.4749189254786</v>
       </c>
       <c r="C9" t="n">
-        <v>2.342131258627897e-06</v>
+        <v>2.342131259219534e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.60147515542326</v>
+        <v>-10.60147517134434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1942959043143207</v>
+        <v>0.1942959036346495</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-131.3961889855502</v>
+        <v>-131.3961887099506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07675357287506884</v>
+        <v>0.07675357348164295</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>670.105537069069</v>
+        <v>670.1055370752091</v>
       </c>
       <c r="C12" t="n">
-        <v>9.88263994450572e-38</v>
+        <v>9.882639931799296e-38</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007190242460858025</v>
+        <v>-0.719024212739853</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8282210290261971</v>
+        <v>0.8282210368967424</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.102530160961307e-06</v>
+        <v>-7.102529828987441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8932396589699093</v>
+        <v>0.8932396639110013</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.12347838393102</v>
+        <v>32.12347838393243</v>
       </c>
       <c r="C15" t="n">
-        <v>1.655275462654475e-05</v>
+        <v>1.655275462653099e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-432.5402206756693</v>
+        <v>-4.325402206755716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6943880066684125</v>
+        <v>0.6943880066684767</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-345.4883671818617</v>
+        <v>-3.454883671817598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.655247354885901</v>
+        <v>0.6552473548859951</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6287.353691782285</v>
+        <v>6287.353692655823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01453388386900268</v>
+        <v>0.01453388386574561</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7155.588037427314</v>
+        <v>-7155.588036800288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00492090439598372</v>
+        <v>0.004920904395979536</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5249.024379975544</v>
+        <v>-5249.02437887111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02896666204129973</v>
+        <v>0.02896666205034205</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5049.826149577464</v>
+        <v>-5049.826148505346</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03550256388024486</v>
+        <v>0.03550256389178038</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>908.2736905123069</v>
+        <v>908.2736903679101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002971891627050326</v>
+        <v>0.002971891631395784</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.966974197428371</v>
+        <v>9.966974106248898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9671173036330404</v>
+        <v>0.9671173039334928</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.7879053654324</v>
+        <v>240.7879055675332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00179877625478965</v>
+        <v>0.001798776239298386</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1022.294778028888</v>
+        <v>-1022.294778162024</v>
       </c>
       <c r="C9" t="n">
-        <v>4.92872614398037e-08</v>
+        <v>4.928726125360333e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.60932465970924</v>
+        <v>-17.60932462908814</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02934675382824587</v>
+        <v>0.02934675411624161</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-209.2766618831573</v>
+        <v>-209.2766620674831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00435629814641919</v>
+        <v>0.004356298113284311</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>702.3515077573885</v>
+        <v>702.3515076486428</v>
       </c>
       <c r="C12" t="n">
-        <v>4.604691679051116e-41</v>
+        <v>4.60469178178752e-41</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0493024041428648</v>
+        <v>-4.930240397338914</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1370058344373888</v>
+        <v>0.1370058358143273</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.076274608597654e-05</v>
+        <v>30.76274561305847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.562744503087526</v>
+        <v>0.5627445092013003</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.60750258362116</v>
+        <v>35.60750258362108</v>
       </c>
       <c r="C15" t="n">
-        <v>3.336448677251594e-06</v>
+        <v>3.336448677251501e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-78.16351327469843</v>
+        <v>-0.7816351327475011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9433715934367199</v>
+        <v>0.9433715934366824</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.7111414595508</v>
+        <v>3.237111414595414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6687955803348997</v>
+        <v>0.6687955803349075</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7480.29730371484</v>
+        <v>7480.29730457147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004182389589130963</v>
+        <v>0.004182389589198351</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-6395.566539572774</v>
+        <v>-6395.566538912474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01319880009728703</v>
+        <v>0.01319880009728033</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5083.843869001941</v>
+        <v>-5083.843869369854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03754686815703284</v>
+        <v>0.0375468681541732</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4854.361735723767</v>
+        <v>-4854.361736495684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04689849994674686</v>
+        <v>0.04689849993826965</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987.3419092943825</v>
+        <v>987.3419093463161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001535574760158829</v>
+        <v>0.001535574759326048</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.68413861068272</v>
+        <v>-31.684138560032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8979759797143956</v>
+        <v>0.897975979876984</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.03416650931452</v>
+        <v>69.03416643704148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3747175309061674</v>
+        <v>0.3747175314009101</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1093.021213286565</v>
+        <v>-1093.021213481808</v>
       </c>
       <c r="C9" t="n">
-        <v>9.51918476627066e-09</v>
+        <v>9.51918471189e-09</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.34188284245504</v>
+        <v>-21.34188286191324</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009718795212393577</v>
+        <v>0.009718795143966473</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-150.3316643288665</v>
+        <v>-150.331663614814</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04163177585763753</v>
+        <v>0.04163177679959049</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.005229640988</v>
+        <v>651.0052290985519</v>
       </c>
       <c r="C12" t="n">
-        <v>5.461460404592019e-35</v>
+        <v>5.461460963470776e-35</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.009374560417334541</v>
+        <v>0.9374560260630382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7815526387589953</v>
+        <v>0.7815526422991893</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.015426947106088e-05</v>
+        <v>-70.15426970259044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1999342639234475</v>
+        <v>0.199934262506731</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.77978931473699</v>
+        <v>31.77978931473869</v>
       </c>
       <c r="C15" t="n">
-        <v>1.732909965184017e-05</v>
+        <v>1.732909965182267e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-310.3107433969549</v>
+        <v>-3.103107433969492</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7791802986231999</v>
+        <v>0.7791802986232026</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-203.5307737692718</v>
+        <v>-2.035307737692384</v>
       </c>
       <c r="C17" t="n">
-        <v>0.792851814759831</v>
+        <v>0.7928518147598632</v>
       </c>
     </row>
   </sheetData>
